--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45078</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44293</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43976</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44019</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44033</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44279</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44806</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44827</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44908</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44930</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44953</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26001,7 +26001,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26172,7 +26172,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30511,6 +30511,26 @@
         <v>0</v>
       </c>
       <c r="R468" s="2" t="inlineStr"/>
+      <c r="U468">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 9458-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V468">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 9458-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W468">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 9458-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X468">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 9458-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y468">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 9458-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="469" ht="15" customHeight="1">
       <c r="A469" t="inlineStr">
@@ -30522,7 +30542,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30579,7 +30599,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30636,7 +30656,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30693,7 +30713,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30750,7 +30770,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30807,7 +30827,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30869,7 +30889,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30931,7 +30951,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30988,7 +31008,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31050,7 +31070,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31107,7 +31127,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31164,7 +31184,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31221,7 +31241,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31278,7 +31298,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31335,7 +31355,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31392,7 +31412,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31449,7 +31469,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31506,7 +31526,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31563,7 +31583,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31620,7 +31640,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31677,7 +31697,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31734,7 +31754,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31791,7 +31811,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31848,7 +31868,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31905,7 +31925,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31967,7 +31987,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32024,7 +32044,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32081,7 +32101,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32138,7 +32158,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32195,7 +32215,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32257,7 +32277,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32314,7 +32334,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32376,7 +32396,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32433,7 +32453,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32490,7 +32510,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32547,7 +32567,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32604,7 +32624,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32661,7 +32681,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32718,7 +32738,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32780,7 +32800,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32837,7 +32857,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32894,7 +32914,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32951,7 +32971,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33013,7 +33033,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33090,7 +33110,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33147,7 +33167,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33204,7 +33224,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33266,7 +33286,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33328,7 +33348,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33385,7 +33405,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33442,7 +33462,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33499,7 +33519,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33561,7 +33581,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33623,7 +33643,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33680,7 +33700,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33742,7 +33762,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33799,7 +33819,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45078</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44293</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4391,14 +4391,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 65834-2018</t>
+          <t>A 4716-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43433</v>
+        <v>44953</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,16 +4410,11 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>9.6</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4428,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4440,1198 +4435,1204 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Garnlav
+Lunglav</t>
+        </is>
+      </c>
+      <c r="S42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A 65834-2018</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>43433</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>2</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>2</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 65834-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 65834-2018.png")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>A 26194-2019</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44" s="1" t="n">
         <v>43609</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="C44" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>11</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>2</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>2</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Vedflamlav
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 26194-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 26194-2019.png")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 24421-2020</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>43976</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="C45" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>15.8</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>2</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Vedflamlav</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 24421-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 24421-2020.png")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 32743-2020</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>44019</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="C46" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>2.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Skrovellav
 Barkkornlav</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 32743-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 32743-2020.png")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>A 34577-2020</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47" s="1" t="n">
         <v>44033</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="C47" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>7</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>2</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Skrovellav</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 34577-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 34577-2020.png")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>A 59786-2020</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48" s="1" t="n">
         <v>44148</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="C48" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G48" t="n">
         <v>9.1</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>2</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>2</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2</v>
       </c>
-      <c r="R47" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Rosenticka</t>
         </is>
       </c>
-      <c r="S47">
+      <c r="S48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 59786-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T47">
+      <c r="T48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 59786-2020.png")</f>
         <v/>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>A 14588-2021</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49" s="1" t="n">
         <v>44279</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="C49" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>6.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R48" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Harticka</t>
         </is>
       </c>
-      <c r="S48">
+      <c r="S49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 14588-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T48">
+      <c r="T49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 14588-2021.png")</f>
         <v/>
       </c>
-      <c r="V48">
+      <c r="V49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="W48">
+      <c r="W49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="X48">
+      <c r="X49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y48">
+      <c r="Y49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>A 56201-2021</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B50" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="C50" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G50" t="n">
         <v>10.9</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J50" t="n">
         <v>1</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>2</v>
       </c>
-      <c r="R49" s="2" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S49">
+      <c r="S50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 56201-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T49">
+      <c r="T50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 56201-2021.png")</f>
         <v/>
       </c>
-      <c r="V49">
+      <c r="V50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="W49">
+      <c r="W50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="X49">
+      <c r="X50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y49">
+      <c r="Y50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>A 6784-2022</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B51" s="1" t="n">
         <v>44602</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+      <c r="C51" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>4</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>2</v>
       </c>
-      <c r="R50" s="2" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
         <is>
           <t>Brunklöver
 Brudsporre</t>
         </is>
       </c>
-      <c r="S50">
+      <c r="S51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 6784-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T50">
+      <c r="T51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 6784-2022.png")</f>
         <v/>
       </c>
-      <c r="V50">
+      <c r="V51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="W50">
+      <c r="W51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="X50">
+      <c r="X51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y50">
+      <c r="Y51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>A 37387-2022</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B52" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+      <c r="C52" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>20.2</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>2</v>
       </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>2</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2</v>
       </c>
-      <c r="R51" s="2" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S51">
+      <c r="S52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37387-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T51">
+      <c r="T52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37387-2022.png")</f>
         <v/>
       </c>
-      <c r="V51">
+      <c r="V52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="W51">
+      <c r="W52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="X51">
+      <c r="X52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y51">
+      <c r="Y52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>A 41823-2022</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53" s="1" t="n">
         <v>44827</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="C53" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>21.6</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H53" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>1</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>2</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>2</v>
       </c>
-      <c r="R52" s="2" t="inlineStr">
+      <c r="R53" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Reliktbock</t>
         </is>
       </c>
-      <c r="S52">
+      <c r="S53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 41823-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T52">
+      <c r="T53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 41823-2022.png")</f>
         <v/>
       </c>
-      <c r="V52">
+      <c r="V53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="W52">
+      <c r="W53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="X52">
+      <c r="X53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y52">
+      <c r="Y53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>A 60849-2022</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B54" s="1" t="n">
         <v>44908</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="C54" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>19.2</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" t="n">
         <v>1</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>2</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" t="n">
         <v>2</v>
       </c>
-      <c r="R53" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav</t>
         </is>
       </c>
-      <c r="S53">
+      <c r="S54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 60849-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T53">
+      <c r="T54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 60849-2022.png")</f>
         <v/>
       </c>
-      <c r="U53">
+      <c r="U54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 60849-2022.png")</f>
         <v/>
       </c>
-      <c r="V53">
+      <c r="V54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="W53">
+      <c r="W54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="X53">
+      <c r="X54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y53">
+      <c r="Y54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>A 575-2023</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B55" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="C55" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>10.9</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J55" t="n">
         <v>1</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="R54" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Rävticka</t>
         </is>
       </c>
-      <c r="S54">
+      <c r="S55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 575-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T54">
+      <c r="T55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 575-2023.png")</f>
         <v/>
       </c>
-      <c r="V54">
+      <c r="V55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="W54">
+      <c r="W55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="X54">
+      <c r="X55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y54">
+      <c r="Y55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 575-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>A 4716-2023</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -5645,7 +5646,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5731,7 +5732,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5822,7 +5823,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5907,7 +5908,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5992,7 +5993,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6077,7 +6078,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6167,7 +6168,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6258,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6347,7 +6348,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6437,7 +6438,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6522,7 +6523,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6612,7 +6613,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6697,7 +6698,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6782,7 +6783,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6871,7 +6872,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6961,7 +6962,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7046,7 +7047,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7136,7 +7137,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7226,7 +7227,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7316,7 +7317,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7406,7 +7407,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7491,7 +7492,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7576,7 +7577,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7666,7 +7667,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7756,7 +7757,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7846,7 +7847,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7903,7 +7904,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7960,7 +7961,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8022,7 +8023,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8084,7 +8085,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8146,7 +8147,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8208,7 +8209,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8270,7 +8271,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8327,7 +8328,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8384,7 +8385,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8441,7 +8442,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8498,7 +8499,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8555,7 +8556,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8612,7 +8613,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8669,7 +8670,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8726,7 +8727,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8783,7 +8784,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8840,7 +8841,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8897,7 +8898,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8954,7 +8955,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9011,7 +9012,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9068,7 +9069,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9125,7 +9126,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9182,7 +9183,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9239,7 +9240,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9296,7 +9297,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9353,7 +9354,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9410,7 +9411,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9467,7 +9468,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9524,7 +9525,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9586,7 +9587,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9648,7 +9649,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9705,7 +9706,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9768,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9825,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9882,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9943,7 +9944,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10000,7 +10001,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10057,7 +10058,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10119,7 +10120,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10176,7 +10177,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10233,7 +10234,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10290,7 +10291,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10347,7 +10348,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10404,7 +10405,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10461,7 +10462,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10518,7 +10519,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10575,7 +10576,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10632,7 +10633,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10689,7 +10690,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10746,7 +10747,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10803,7 +10804,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10865,7 +10866,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10923,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10980,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11041,7 +11042,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11098,7 +11099,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11160,7 +11161,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11217,7 +11218,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11279,7 +11280,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11341,7 +11342,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11403,7 +11404,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11465,7 +11466,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11527,7 +11528,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11589,7 +11590,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11646,7 +11647,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11703,7 +11704,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11760,7 +11761,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11817,7 +11818,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11874,7 +11875,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11936,7 +11937,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11998,7 +11999,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12060,7 +12061,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12122,7 +12123,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12184,7 +12185,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12246,7 +12247,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12308,7 +12309,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12370,7 +12371,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12427,7 +12428,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12489,7 +12490,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12551,7 +12552,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12608,7 +12609,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12670,7 +12671,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12732,7 +12733,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12789,7 +12790,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12846,7 +12847,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12903,7 +12904,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12960,7 +12961,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13022,7 +13023,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13079,7 +13080,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13136,7 +13137,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13193,7 +13194,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13250,7 +13251,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13312,7 +13313,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13369,7 +13370,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13426,7 +13427,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13483,7 +13484,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13540,7 +13541,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13597,7 +13598,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13654,7 +13655,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13711,7 +13712,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13768,7 +13769,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13825,7 +13826,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13882,7 +13883,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13939,7 +13940,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13996,7 +13997,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14053,7 +14054,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14110,7 +14111,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14167,7 +14168,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14224,7 +14225,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14281,7 +14282,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14338,7 +14339,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14395,7 +14396,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14452,7 +14453,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14509,7 +14510,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14566,7 +14567,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14623,7 +14624,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14680,7 +14681,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14742,7 +14743,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14804,7 +14805,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14866,7 +14867,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14928,7 +14929,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14985,7 +14986,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15042,7 +15043,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15099,7 +15100,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15156,7 +15157,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15213,7 +15214,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15270,7 +15271,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15332,7 +15333,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15394,7 +15395,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15451,7 +15452,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15513,7 +15514,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15570,7 +15571,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15627,7 +15628,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15684,7 +15685,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15741,7 +15742,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15803,7 +15804,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15860,7 +15861,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15922,7 +15923,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15984,7 +15985,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16046,7 +16047,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16108,7 +16109,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16170,7 +16171,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16227,7 +16228,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16284,7 +16285,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16346,7 +16347,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16403,7 +16404,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16460,7 +16461,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16517,7 +16518,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16574,7 +16575,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16631,7 +16632,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16745,7 +16746,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16916,7 +16917,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16978,7 +16979,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17040,7 +17041,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17102,7 +17103,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17164,7 +17165,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17226,7 +17227,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17283,7 +17284,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17340,7 +17341,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17397,7 +17398,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17454,7 +17455,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17511,7 +17512,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17568,7 +17569,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17630,7 +17631,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17687,7 +17688,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17744,7 +17745,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17801,7 +17802,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17858,7 +17859,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17915,7 +17916,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17977,7 +17978,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18039,7 +18040,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18101,7 +18102,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18158,7 +18159,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18215,7 +18216,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18272,7 +18273,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18334,7 +18335,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18391,7 +18392,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18448,7 +18449,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18505,7 +18506,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18562,7 +18563,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18619,7 +18620,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18676,7 +18677,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18733,7 +18734,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18795,7 +18796,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18852,7 +18853,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18914,7 +18915,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18971,7 +18972,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19028,7 +19029,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19085,7 +19086,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19142,7 +19143,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19199,7 +19200,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19256,7 +19257,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19313,7 +19314,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19370,7 +19371,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19427,7 +19428,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19484,7 +19485,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19541,7 +19542,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19603,7 +19604,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19665,7 +19666,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19722,7 +19723,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19779,7 +19780,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19841,7 +19842,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19903,7 +19904,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19960,7 +19961,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20037,7 +20038,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20094,7 +20095,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20151,7 +20152,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20208,7 +20209,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20265,7 +20266,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20322,7 +20323,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20379,7 +20380,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20441,7 +20442,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20498,7 +20499,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20555,7 +20556,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20612,7 +20613,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20669,7 +20670,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20726,7 +20727,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20783,7 +20784,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20840,7 +20841,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20897,7 +20898,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20954,7 +20955,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21011,7 +21012,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21073,7 +21074,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21135,7 +21136,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21197,7 +21198,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21259,7 +21260,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21321,7 +21322,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21383,7 +21384,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21445,7 +21446,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21502,7 +21503,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21564,7 +21565,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21626,7 +21627,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21683,7 +21684,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21740,7 +21741,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21797,7 +21798,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21854,7 +21855,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21911,7 +21912,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21968,7 +21969,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22025,7 +22026,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22082,7 +22083,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22139,7 +22140,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22196,7 +22197,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22253,7 +22254,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22310,7 +22311,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22367,7 +22368,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22424,7 +22425,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22481,7 +22482,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22538,7 +22539,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22595,7 +22596,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22652,7 +22653,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22709,7 +22710,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22766,7 +22767,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22823,7 +22824,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22880,7 +22881,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22937,7 +22938,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22994,7 +22995,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23051,7 +23052,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23113,7 +23114,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23170,7 +23171,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23228,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23284,7 +23285,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23341,7 +23342,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23398,7 +23399,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23455,7 +23456,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23512,7 +23513,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23569,7 +23570,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23631,7 +23632,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23688,7 +23689,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23750,7 +23751,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23807,7 +23808,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23864,7 +23865,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23926,7 +23927,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23983,7 +23984,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24045,7 +24046,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24102,7 +24103,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24159,7 +24160,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24216,7 +24217,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24278,7 +24279,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24335,7 +24336,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24392,7 +24393,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24454,7 +24455,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24516,7 +24517,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24573,7 +24574,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24630,7 +24631,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24692,7 +24693,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24754,7 +24755,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24811,7 +24812,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24873,7 +24874,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24935,7 +24936,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24997,7 +24998,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25054,7 +25055,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25116,7 +25117,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25178,7 +25179,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25240,7 +25241,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25302,7 +25303,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25359,7 +25360,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25416,7 +25417,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25473,7 +25474,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25530,7 +25531,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25587,7 +25588,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25644,7 +25645,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25706,7 +25707,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25768,7 +25769,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25825,7 +25826,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25882,7 +25883,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25939,7 +25940,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26001,7 +26002,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26058,7 +26059,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26115,7 +26116,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26172,7 +26173,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26229,7 +26230,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26291,7 +26292,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26348,7 +26349,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26405,7 +26406,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26462,7 +26463,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26524,7 +26525,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26586,7 +26587,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26643,7 +26644,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26700,7 +26701,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26757,7 +26758,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26814,7 +26815,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26871,7 +26872,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26928,7 +26929,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26985,7 +26986,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27042,7 +27043,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27099,7 +27100,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27156,7 +27157,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27213,7 +27214,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27275,7 +27276,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27332,7 +27333,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27394,7 +27395,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27456,7 +27457,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27518,7 +27519,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27575,7 +27576,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27632,7 +27633,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27694,7 +27695,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27751,7 +27752,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27808,7 +27809,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27870,7 +27871,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27932,7 +27933,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27989,7 +27990,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28046,7 +28047,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28103,7 +28104,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28160,7 +28161,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28217,7 +28218,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28274,7 +28275,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28331,7 +28332,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28388,7 +28389,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28445,7 +28446,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28502,7 +28503,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28559,7 +28560,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28616,7 +28617,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28673,7 +28674,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28730,7 +28731,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28787,7 +28788,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28844,7 +28845,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28901,7 +28902,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28963,7 +28964,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29020,7 +29021,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29077,7 +29078,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29134,7 +29135,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29191,7 +29192,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29248,7 +29249,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29305,7 +29306,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29362,7 +29363,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29419,7 +29420,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29476,7 +29477,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29533,7 +29534,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29595,7 +29596,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29652,7 +29653,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29714,7 +29715,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29771,7 +29772,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29828,7 +29829,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29885,7 +29886,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29942,7 +29943,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29999,7 +30000,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30056,7 +30057,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30113,7 +30114,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30170,7 +30171,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30227,7 +30228,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30284,7 +30285,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30346,7 +30347,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30403,7 +30404,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30465,7 +30466,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30542,7 +30543,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30599,7 +30600,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30656,7 +30657,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30713,7 +30714,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30770,7 +30771,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30827,7 +30828,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30889,7 +30890,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30951,7 +30952,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31008,7 +31009,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31070,7 +31071,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31127,7 +31128,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31184,7 +31185,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31241,7 +31242,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31298,7 +31299,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31355,7 +31356,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31412,7 +31413,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31469,7 +31470,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31526,7 +31527,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31583,7 +31584,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31640,7 +31641,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31697,7 +31698,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31754,7 +31755,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31811,7 +31812,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31868,7 +31869,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31925,7 +31926,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31987,7 +31988,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32044,7 +32045,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32101,7 +32102,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32158,7 +32159,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32215,7 +32216,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32277,7 +32278,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32334,7 +32335,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32396,7 +32397,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32453,7 +32454,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32510,7 +32511,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32567,7 +32568,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32624,7 +32625,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32681,7 +32682,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32738,7 +32739,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32800,7 +32801,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32857,7 +32858,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32914,7 +32915,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32971,7 +32972,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33033,7 +33034,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33110,7 +33111,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33167,7 +33168,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33224,7 +33225,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33286,7 +33287,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33348,7 +33349,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33405,7 +33406,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33462,7 +33463,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33519,7 +33520,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33581,7 +33582,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33643,7 +33644,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33700,7 +33701,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33762,7 +33763,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33819,7 +33820,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45078</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44293</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4391,14 +4391,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4716-2023</t>
+          <t>A 65834-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44953</v>
+        <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,11 +4410,16 @@
           <t>BERG</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>9.6</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4423,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4435,61 +4440,56 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Garnlav
+          <t>Garnlav
 Lunglav</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 65834-2018.xlsx")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 65834-2018.png")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 65834-2018.docx")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 65834-2018.docx")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 65834-2018</t>
+          <t>A 26194-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43433</v>
+        <v>43609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4501,13 +4501,8 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4541,46 +4536,46 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Garnlav
-Lunglav</t>
+          <t>Vedflamlav
+Vedskivlav</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 65834-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 26194-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 65834-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 26194-2019.png")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 65834-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 26194-2019.docx")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 65834-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 65834-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 26194-2019.docx")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 65834-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26194-2019</t>
+          <t>A 24421-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43609</v>
+        <v>43976</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4592,8 +4587,13 @@
           <t>BERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>15.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4627,46 +4627,46 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Vedflamlav
-Vedskivlav</t>
+          <t>Blanksvart spiklav
+Vedflamlav</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 26194-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 24421-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 26194-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 24421-2020.png")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 26194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 24421-2020.docx")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 26194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 26194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 24421-2020.docx")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 26194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24421-2020</t>
+          <t>A 32743-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43976</v>
+        <v>44019</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>15.8</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4718,46 +4718,46 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav
-Vedflamlav</t>
+          <t>Skrovellav
+Barkkornlav</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 24421-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 32743-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 24421-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 32743-2020.png")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 24421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 32743-2020.docx")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 24421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 24421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 32743-2020.docx")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 24421-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32743-2020</t>
+          <t>A 34577-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44019</v>
+        <v>44033</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4775,19 +4775,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4799,56 +4799,56 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
         <v>1</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>2</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>Skrovellav
-Barkkornlav</t>
+          <t>Doftticka
+Skrovellav</t>
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 32743-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 34577-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 32743-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 34577-2020.png")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 32743-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 34577-2020.docx")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 32743-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 32743-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 34577-2020.docx")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 32743-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34577-2020</t>
+          <t>A 59786-2020</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44033</v>
+        <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4862,23 +4862,23 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4893,53 +4893,53 @@
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>Doftticka
-Skrovellav</t>
+          <t>Gränsticka
+Rosenticka</t>
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 34577-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 59786-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 34577-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 59786-2020.png")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 34577-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 59786-2020.docx")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 34577-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 34577-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 59786-2020.docx")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 34577-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59786-2020</t>
+          <t>A 14588-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44148</v>
+        <v>44279</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4951,13 +4951,8 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4991,46 +4986,46 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Gränsticka
-Rosenticka</t>
+          <t>Garnlav
+Harticka</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 59786-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 14588-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 59786-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 14588-2021.png")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 59786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 14588-2021.docx")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 59786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 59786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 14588-2021.docx")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 59786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14588-2021</t>
+          <t>A 56201-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44279</v>
+        <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5042,17 +5037,22 @@
           <t>BERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -5077,46 +5077,46 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Garnlav
-Harticka</t>
+          <t>Ullticka
+Spindelblomster</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 14588-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 56201-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 14588-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 56201-2021.png")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 14588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 56201-2021.docx")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 14588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 14588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 56201-2021.docx")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 14588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56201-2021</t>
+          <t>A 6784-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44477</v>
+        <v>44602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5128,19 +5128,14 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>10.9</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -5168,46 +5163,46 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Ullticka
-Spindelblomster</t>
+          <t>Brunklöver
+Brudsporre</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 56201-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 6784-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 56201-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 6784-2022.png")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 56201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 6784-2022.docx")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 56201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 56201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 6784-2022.docx")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 56201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6784-2022</t>
+          <t>A 37387-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44602</v>
+        <v>44806</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5220,7 +5215,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>20.2</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5229,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5244,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5254,46 +5249,46 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Brunklöver
-Brudsporre</t>
+          <t>Garnlav
+Tretåig hackspett</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 6784-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37387-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 6784-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37387-2022.png")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 6784-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37387-2022.docx")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 6784-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 6784-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37387-2022.docx")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 6784-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 37387-2022</t>
+          <t>A 41823-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44806</v>
+        <v>44827</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5305,8 +5300,13 @@
           <t>BERG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5333,53 +5333,53 @@
         <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>2</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>Garnlav
-Tretåig hackspett</t>
+          <t>Doftticka
+Reliktbock</t>
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37387-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 41823-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37387-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 41823-2022.png")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 41823-2022.docx")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 41823-2022.docx")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41823-2022</t>
+          <t>A 60849-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44827</v>
+        <v>44908</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5391,13 +5391,8 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>21.6</v>
+        <v>19.2</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -5431,46 +5426,50 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Doftticka
-Reliktbock</t>
+          <t>Knärot
+Garnlav</t>
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 41823-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 60849-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 41823-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 60849-2022.png")</f>
+        <v/>
+      </c>
+      <c r="U53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 60849-2022.png")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 41823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 60849-2022.docx")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 41823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 41823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 60849-2022.docx")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 41823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60849-2022</t>
+          <t>A 575-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44908</v>
+        <v>44930</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5483,156 +5482,156 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>19.2</v>
+        <v>10.9</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>2</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
+          <t>Lunglav
+Rävticka</t>
+        </is>
+      </c>
+      <c r="S54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 575-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 575-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 575-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 575-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 575-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 575-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A 4716-2023</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Garnlav</t>
         </is>
       </c>
-      <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 60849-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 60849-2022.png")</f>
-        <v/>
-      </c>
-      <c r="U54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 60849-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 60849-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 60849-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 60849-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 60849-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>A 575-2023</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>Lunglav
-Rävticka</t>
-        </is>
-      </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 575-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 575-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U55">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 575-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -5646,7 +5645,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5732,7 +5731,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5823,7 +5822,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5908,7 +5907,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5993,7 +5992,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6078,7 +6077,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6168,7 +6167,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6258,7 +6257,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6348,7 +6347,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6438,7 +6437,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6523,7 +6522,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6613,7 +6612,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6698,7 +6697,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6783,7 +6782,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6872,7 +6871,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6962,7 +6961,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7047,7 +7046,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7137,7 +7136,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7227,7 +7226,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7317,7 +7316,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7407,7 +7406,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7492,7 +7491,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7577,7 +7576,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7667,7 +7666,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7757,7 +7756,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7847,7 +7846,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7904,7 +7903,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7961,7 +7960,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8023,7 +8022,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8085,7 +8084,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8147,7 +8146,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8209,7 +8208,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8271,7 +8270,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8328,7 +8327,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8385,7 +8384,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8442,7 +8441,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8499,7 +8498,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8556,7 +8555,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8613,7 +8612,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8670,7 +8669,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8727,7 +8726,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8784,7 +8783,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8841,7 +8840,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8898,7 +8897,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8955,7 +8954,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9012,7 +9011,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9069,7 +9068,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9126,7 +9125,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9183,7 +9182,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9240,7 +9239,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9297,7 +9296,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9354,7 +9353,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9411,7 +9410,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9468,7 +9467,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9525,7 +9524,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9587,7 +9586,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9649,7 +9648,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9706,7 +9705,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9768,7 +9767,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9825,7 +9824,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9882,7 +9881,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9944,7 +9943,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10001,7 +10000,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10058,7 +10057,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10120,7 +10119,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10177,7 +10176,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10234,7 +10233,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10291,7 +10290,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10348,7 +10347,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10405,7 +10404,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10462,7 +10461,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10519,7 +10518,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10576,7 +10575,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10633,7 +10632,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10690,7 +10689,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10747,7 +10746,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10804,7 +10803,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10866,7 +10865,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10923,7 +10922,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10980,7 +10979,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11042,7 +11041,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11099,7 +11098,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11161,7 +11160,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11218,7 +11217,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11280,7 +11279,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11342,7 +11341,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11404,7 +11403,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11466,7 +11465,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11528,7 +11527,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11590,7 +11589,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11647,7 +11646,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11704,7 +11703,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11761,7 +11760,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11818,7 +11817,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11875,7 +11874,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11937,7 +11936,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11999,7 +11998,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12061,7 +12060,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12123,7 +12122,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12185,7 +12184,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12247,7 +12246,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12309,7 +12308,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12371,7 +12370,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12428,7 +12427,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12490,7 +12489,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12552,7 +12551,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12609,7 +12608,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12671,7 +12670,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12733,7 +12732,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12790,7 +12789,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12847,7 +12846,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12904,7 +12903,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12961,7 +12960,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13023,7 +13022,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13080,7 +13079,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13137,7 +13136,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13194,7 +13193,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13251,7 +13250,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13313,7 +13312,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13370,7 +13369,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13427,7 +13426,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13484,7 +13483,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13541,7 +13540,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13598,7 +13597,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13655,7 +13654,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13712,7 +13711,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13769,7 +13768,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13826,7 +13825,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13883,7 +13882,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13940,7 +13939,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13997,7 +13996,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14054,7 +14053,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14111,7 +14110,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14168,7 +14167,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14225,7 +14224,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14282,7 +14281,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14339,7 +14338,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14396,7 +14395,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14453,7 +14452,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14510,7 +14509,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14567,7 +14566,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14624,7 +14623,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14681,7 +14680,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14743,7 +14742,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14805,7 +14804,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14867,7 +14866,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14929,7 +14928,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14986,7 +14985,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15043,7 +15042,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15100,7 +15099,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15157,7 +15156,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15214,7 +15213,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15271,7 +15270,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15333,7 +15332,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15395,7 +15394,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15452,7 +15451,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15514,7 +15513,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15571,7 +15570,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15628,7 +15627,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15685,7 +15684,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15742,7 +15741,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15804,7 +15803,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15861,7 +15860,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15923,7 +15922,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15985,7 +15984,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16047,7 +16046,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16109,7 +16108,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16171,7 +16170,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16228,7 +16227,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16285,7 +16284,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16347,7 +16346,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16404,7 +16403,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16461,7 +16460,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16518,7 +16517,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16575,7 +16574,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16632,7 +16631,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16689,7 +16688,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16746,7 +16745,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16803,7 +16802,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16860,7 +16859,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16917,7 +16916,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16979,7 +16978,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17041,7 +17040,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17103,7 +17102,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17165,7 +17164,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17227,7 +17226,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17284,7 +17283,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17341,7 +17340,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17398,7 +17397,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17455,7 +17454,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17512,7 +17511,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17569,7 +17568,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17631,7 +17630,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17688,7 +17687,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17745,7 +17744,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17802,7 +17801,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17859,7 +17858,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17916,7 +17915,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17978,7 +17977,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18040,7 +18039,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18102,7 +18101,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18159,7 +18158,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18216,7 +18215,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18273,7 +18272,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18335,7 +18334,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18392,7 +18391,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18449,7 +18448,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18506,7 +18505,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18563,7 +18562,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18620,7 +18619,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18677,7 +18676,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18734,7 +18733,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18796,7 +18795,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18853,7 +18852,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18915,7 +18914,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18972,7 +18971,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19029,7 +19028,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19086,7 +19085,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19143,7 +19142,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19200,7 +19199,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19257,7 +19256,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19314,7 +19313,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19371,7 +19370,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19428,7 +19427,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19485,7 +19484,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19542,7 +19541,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19604,7 +19603,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19666,7 +19665,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19723,7 +19722,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19780,7 +19779,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19842,7 +19841,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19904,7 +19903,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19961,7 +19960,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20038,7 +20037,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20095,7 +20094,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20152,7 +20151,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20209,7 +20208,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20266,7 +20265,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20323,7 +20322,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20380,7 +20379,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20442,7 +20441,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20499,7 +20498,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20556,7 +20555,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20613,7 +20612,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20670,7 +20669,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20727,7 +20726,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20784,7 +20783,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20841,7 +20840,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20898,7 +20897,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20955,7 +20954,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21012,7 +21011,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21074,7 +21073,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21136,7 +21135,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21198,7 +21197,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21260,7 +21259,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21322,7 +21321,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21384,7 +21383,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21446,7 +21445,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21503,7 +21502,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21565,7 +21564,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21627,7 +21626,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21684,7 +21683,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21741,7 +21740,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21798,7 +21797,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21855,7 +21854,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21912,7 +21911,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21969,7 +21968,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22026,7 +22025,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22083,7 +22082,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22140,7 +22139,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22197,7 +22196,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22254,7 +22253,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22311,7 +22310,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22368,7 +22367,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22425,7 +22424,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22482,7 +22481,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22539,7 +22538,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22596,7 +22595,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22653,7 +22652,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22710,7 +22709,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22767,7 +22766,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22824,7 +22823,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22881,7 +22880,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22938,7 +22937,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22995,7 +22994,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23052,7 +23051,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23114,7 +23113,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23171,7 +23170,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23227,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23285,7 +23284,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23342,7 +23341,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23399,7 +23398,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23456,7 +23455,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23513,7 +23512,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23570,7 +23569,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23632,7 +23631,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23689,7 +23688,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23751,7 +23750,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23808,7 +23807,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23865,7 +23864,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23927,7 +23926,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23984,7 +23983,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24046,7 +24045,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24103,7 +24102,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24160,7 +24159,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24217,7 +24216,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24279,7 +24278,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24336,7 +24335,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24393,7 +24392,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24455,7 +24454,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24517,7 +24516,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24574,7 +24573,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24631,7 +24630,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24693,7 +24692,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24755,7 +24754,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24812,7 +24811,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24874,7 +24873,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24936,7 +24935,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24998,7 +24997,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25055,7 +25054,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25117,7 +25116,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25179,7 +25178,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25241,7 +25240,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25303,7 +25302,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25360,7 +25359,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25417,7 +25416,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25474,7 +25473,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25531,7 +25530,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25588,7 +25587,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25645,7 +25644,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25707,7 +25706,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25769,7 +25768,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25826,7 +25825,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25883,7 +25882,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25940,7 +25939,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26002,7 +26001,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26059,7 +26058,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26116,7 +26115,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26173,7 +26172,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26230,7 +26229,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26292,7 +26291,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26349,7 +26348,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26406,7 +26405,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26463,7 +26462,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26525,7 +26524,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26587,7 +26586,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26644,7 +26643,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26701,7 +26700,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26758,7 +26757,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26815,7 +26814,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26872,7 +26871,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26929,7 +26928,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26986,7 +26985,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27043,7 +27042,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27100,7 +27099,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27157,7 +27156,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27214,7 +27213,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27276,7 +27275,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27333,7 +27332,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27395,7 +27394,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27457,7 +27456,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27519,7 +27518,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27576,7 +27575,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27633,7 +27632,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27695,7 +27694,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27752,7 +27751,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27809,7 +27808,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27871,7 +27870,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27933,7 +27932,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27990,7 +27989,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28047,7 +28046,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28104,7 +28103,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28161,7 +28160,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28218,7 +28217,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28275,7 +28274,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28332,7 +28331,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28389,7 +28388,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28446,7 +28445,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28503,7 +28502,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28560,7 +28559,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28617,7 +28616,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28674,7 +28673,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28731,7 +28730,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28788,7 +28787,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28845,7 +28844,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28902,7 +28901,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28964,7 +28963,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29021,7 +29020,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29078,7 +29077,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29135,7 +29134,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29192,7 +29191,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29249,7 +29248,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29306,7 +29305,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29363,7 +29362,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29420,7 +29419,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29477,7 +29476,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29534,7 +29533,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29596,7 +29595,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29653,7 +29652,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29715,7 +29714,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29772,7 +29771,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29829,7 +29828,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29886,7 +29885,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29943,7 +29942,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30000,7 +29999,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30057,7 +30056,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30114,7 +30113,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30171,7 +30170,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30228,7 +30227,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30285,7 +30284,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30347,7 +30346,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30404,7 +30403,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30466,7 +30465,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30543,7 +30542,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30600,7 +30599,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30657,7 +30656,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30714,7 +30713,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30771,7 +30770,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30828,7 +30827,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30890,7 +30889,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30952,7 +30951,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31009,7 +31008,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31071,7 +31070,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31128,7 +31127,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31185,7 +31184,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31242,7 +31241,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31299,7 +31298,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31356,7 +31355,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31413,7 +31412,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31470,7 +31469,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31527,7 +31526,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31584,7 +31583,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31641,7 +31640,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31698,7 +31697,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31755,7 +31754,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31812,7 +31811,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31869,7 +31868,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31926,7 +31925,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31988,7 +31987,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32045,7 +32044,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32102,7 +32101,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32159,7 +32158,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32216,7 +32215,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32278,7 +32277,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32335,7 +32334,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32397,7 +32396,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32454,7 +32453,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32511,7 +32510,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32568,7 +32567,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32625,7 +32624,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32682,7 +32681,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32739,7 +32738,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32801,7 +32800,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32858,7 +32857,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32915,7 +32914,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32972,7 +32971,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33034,7 +33033,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33111,7 +33110,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33168,7 +33167,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33225,7 +33224,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33287,7 +33286,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33349,7 +33348,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33406,7 +33405,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33463,7 +33462,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33520,7 +33519,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33582,7 +33581,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33644,7 +33643,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33701,7 +33700,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33763,7 +33762,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33820,7 +33819,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45078</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44293</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43976</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44019</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44033</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44279</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44477</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44806</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>44827</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44908</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44930</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44953</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26001,7 +26001,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26172,7 +26172,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29771,7 +29771,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29828,7 +29828,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29885,7 +29885,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30465,7 +30465,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31070,7 +31070,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31127,7 +31127,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31640,7 +31640,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31697,7 +31697,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31868,7 +31868,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32101,7 +32101,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3862,14 +3862,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20874-2023</t>
+          <t>A 4716-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45058</v>
+        <v>44953</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3881,25 +3881,20 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>9.6</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3911,15 +3906,112 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Taggfingersvamp
+Garnlav
+Lunglav</t>
+        </is>
+      </c>
+      <c r="S36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>A 20874-2023</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Mörk kolflarnlav
@@ -3927,87 +4019,87 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 20874-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 20874-2023.png")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 20874-2023.docx")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 20874-2023.docx")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 20874-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 20874-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 23951-2023</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="C38" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>16.4</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J38" t="n">
         <v>2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>3</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Kolflarnlav
@@ -4015,1623 +4107,1533 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 23951-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 23951-2023.png")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 23951-2023.docx")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 23951-2023.docx")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 23951-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 23951-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>A 52190-2020</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39" s="1" t="n">
         <v>44111</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="C39" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>23.3</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J39" t="n">
         <v>2</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>2</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>3</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 52190-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 52190-2020.png")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 52190-2020.docx")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 52190-2020.docx")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 52190-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 52190-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>A 14599-2021</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40" s="1" t="n">
         <v>44279</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="C40" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>25.7</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>3</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Harticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 14599-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 14599-2021.png")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 14599-2021.docx")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 14599-2021.docx")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 14599-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 14599-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>A 16830-2021</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41" s="1" t="n">
         <v>44293</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="C41" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>3</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 16830-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 16830-2021.png")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 16830-2021.docx")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 16830-2021.docx")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 16830-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 16830-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 68433-2021</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>44529</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="C42" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>17.9</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>3</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Vaddporing
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 68433-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 68433-2021.png")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 68433-2021.docx")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 68433-2021.docx")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 68433-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 68433-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>A 65834-2018</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43" s="1" t="n">
         <v>43433</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="C43" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>2.8</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>2</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>2</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>2</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 65834-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 65834-2018.png")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 65834-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 65834-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>A 26194-2019</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44" s="1" t="n">
         <v>43609</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="C44" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>11</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>2</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>2</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Vedflamlav
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 26194-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 26194-2019.png")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 26194-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 26194-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 24421-2020</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>43976</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="C45" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>15.8</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>2</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Vedflamlav</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 24421-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 24421-2020.png")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 24421-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 24421-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 32743-2020</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>44019</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="C46" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>2.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Skrovellav
 Barkkornlav</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 32743-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 32743-2020.png")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 32743-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 32743-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>A 34577-2020</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47" s="1" t="n">
         <v>44033</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="C47" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>7</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>2</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Skrovellav</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 34577-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 34577-2020.png")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 34577-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 34577-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>A 59786-2020</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48" s="1" t="n">
         <v>44148</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="C48" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G48" t="n">
         <v>9.1</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>2</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>2</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2</v>
       </c>
-      <c r="R47" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Rosenticka</t>
         </is>
       </c>
-      <c r="S47">
+      <c r="S48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 59786-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T47">
+      <c r="T48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 59786-2020.png")</f>
         <v/>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 59786-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 59786-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>A 14588-2021</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49" s="1" t="n">
         <v>44279</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="C49" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>6.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R48" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Harticka</t>
         </is>
       </c>
-      <c r="S48">
+      <c r="S49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 14588-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T48">
+      <c r="T49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 14588-2021.png")</f>
         <v/>
       </c>
-      <c r="V48">
+      <c r="V49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="W48">
+      <c r="W49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="X48">
+      <c r="X49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 14588-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y48">
+      <c r="Y49">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 14588-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>A 56201-2021</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B50" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="C50" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G50" t="n">
         <v>10.9</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J50" t="n">
         <v>1</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>2</v>
       </c>
-      <c r="R49" s="2" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S49">
+      <c r="S50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 56201-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T49">
+      <c r="T50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 56201-2021.png")</f>
         <v/>
       </c>
-      <c r="V49">
+      <c r="V50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="W49">
+      <c r="W50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="X49">
+      <c r="X50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 56201-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y49">
+      <c r="Y50">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 56201-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>A 6784-2022</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B51" s="1" t="n">
         <v>44602</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+      <c r="C51" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>4</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>2</v>
       </c>
-      <c r="R50" s="2" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
         <is>
           <t>Brunklöver
 Brudsporre</t>
         </is>
       </c>
-      <c r="S50">
+      <c r="S51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 6784-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T50">
+      <c r="T51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 6784-2022.png")</f>
         <v/>
       </c>
-      <c r="V50">
+      <c r="V51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="W50">
+      <c r="W51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="X50">
+      <c r="X51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 6784-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y50">
+      <c r="Y51">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 6784-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>A 37387-2022</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B52" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+      <c r="C52" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>20.2</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>2</v>
       </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>2</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2</v>
       </c>
-      <c r="R51" s="2" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S51">
+      <c r="S52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37387-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T51">
+      <c r="T52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37387-2022.png")</f>
         <v/>
       </c>
-      <c r="V51">
+      <c r="V52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="W51">
+      <c r="W52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="X51">
+      <c r="X52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37387-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y51">
+      <c r="Y52">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37387-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>A 41823-2022</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53" s="1" t="n">
         <v>44827</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="C53" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>21.6</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H53" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>1</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>2</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>2</v>
       </c>
-      <c r="R52" s="2" t="inlineStr">
+      <c r="R53" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Reliktbock</t>
         </is>
       </c>
-      <c r="S52">
+      <c r="S53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 41823-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T52">
+      <c r="T53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 41823-2022.png")</f>
         <v/>
       </c>
-      <c r="V52">
+      <c r="V53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="W52">
+      <c r="W53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="X52">
+      <c r="X53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 41823-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y52">
+      <c r="Y53">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 41823-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="inlineStr">
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>A 60849-2022</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B54" s="1" t="n">
         <v>44908</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="C54" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>19.2</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" t="n">
         <v>1</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>2</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" t="n">
         <v>2</v>
       </c>
-      <c r="R53" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav</t>
         </is>
       </c>
-      <c r="S53">
+      <c r="S54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 60849-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T53">
+      <c r="T54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 60849-2022.png")</f>
         <v/>
       </c>
-      <c r="U53">
+      <c r="U54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 60849-2022.png")</f>
         <v/>
       </c>
-      <c r="V53">
+      <c r="V54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="W53">
+      <c r="W54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="X53">
+      <c r="X54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 60849-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y53">
+      <c r="Y54">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 60849-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>A 575-2023</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B55" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="C55" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>10.9</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J55" t="n">
         <v>1</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="R54" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Rävticka</t>
         </is>
       </c>
-      <c r="S54">
+      <c r="S55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 575-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T54">
+      <c r="T55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 575-2023.png")</f>
         <v/>
       </c>
-      <c r="V54">
+      <c r="V55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="W54">
+      <c r="W55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="X54">
+      <c r="X55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 575-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y54">
+      <c r="Y55">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 575-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>A 4716-2023</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -5645,7 +5647,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5731,7 +5733,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5822,7 +5824,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5907,7 +5909,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5992,7 +5994,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6077,7 +6079,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6167,7 +6169,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6259,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6347,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6437,7 +6439,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6522,7 +6524,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6612,7 +6614,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6697,7 +6699,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6782,7 +6784,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6871,7 +6873,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6961,7 +6963,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7046,7 +7048,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7136,7 +7138,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7226,7 +7228,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7316,7 +7318,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7406,7 +7408,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7491,7 +7493,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7576,7 +7578,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7666,7 +7668,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7756,7 +7758,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7846,7 +7848,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7903,7 +7905,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7960,7 +7962,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8022,7 +8024,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8084,7 +8086,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8146,7 +8148,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8208,7 +8210,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8270,7 +8272,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8327,7 +8329,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8384,7 +8386,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8441,7 +8443,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8498,7 +8500,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8555,7 +8557,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8612,7 +8614,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8669,7 +8671,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8726,7 +8728,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8783,7 +8785,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8840,7 +8842,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8897,7 +8899,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8954,7 +8956,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9011,7 +9013,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9068,7 +9070,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9125,7 +9127,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9182,7 +9184,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9239,7 +9241,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9296,7 +9298,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9353,7 +9355,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9410,7 +9412,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9467,7 +9469,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9524,7 +9526,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9586,7 +9588,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9648,7 +9650,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9705,7 +9707,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9769,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9826,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9883,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9943,7 +9945,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10000,7 +10002,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10057,7 +10059,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10119,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10176,7 +10178,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10233,7 +10235,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10290,7 +10292,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10347,7 +10349,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10404,7 +10406,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10461,7 +10463,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10518,7 +10520,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10575,7 +10577,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10632,7 +10634,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10689,7 +10691,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10746,7 +10748,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10803,7 +10805,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10865,7 +10867,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10924,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10981,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11041,7 +11043,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11098,7 +11100,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11160,7 +11162,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11217,7 +11219,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11279,7 +11281,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11341,7 +11343,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11403,7 +11405,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11465,7 +11467,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11527,7 +11529,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11589,7 +11591,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11646,7 +11648,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11703,7 +11705,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11760,7 +11762,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11817,7 +11819,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11874,7 +11876,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11936,7 +11938,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11998,7 +12000,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12060,7 +12062,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12122,7 +12124,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12184,7 +12186,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12246,7 +12248,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12308,7 +12310,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12370,7 +12372,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12427,7 +12429,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12489,7 +12491,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12551,7 +12553,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12608,7 +12610,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12670,7 +12672,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12732,7 +12734,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12789,7 +12791,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12846,7 +12848,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12903,7 +12905,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12960,7 +12962,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13022,7 +13024,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13079,7 +13081,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13136,7 +13138,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13193,7 +13195,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13250,7 +13252,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13312,7 +13314,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13369,7 +13371,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13426,7 +13428,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13483,7 +13485,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13540,7 +13542,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13597,7 +13599,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13654,7 +13656,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13711,7 +13713,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13768,7 +13770,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13825,7 +13827,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13882,7 +13884,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13939,7 +13941,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13996,7 +13998,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14053,7 +14055,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14110,7 +14112,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14167,7 +14169,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14224,7 +14226,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14281,7 +14283,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14338,7 +14340,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14395,7 +14397,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14452,7 +14454,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14509,7 +14511,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14566,7 +14568,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14623,7 +14625,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14680,7 +14682,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14742,7 +14744,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14804,7 +14806,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14866,7 +14868,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14928,7 +14930,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14985,7 +14987,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15042,7 +15044,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15099,7 +15101,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15156,7 +15158,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15213,7 +15215,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15270,7 +15272,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15332,7 +15334,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15394,7 +15396,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15451,7 +15453,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15513,7 +15515,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15570,7 +15572,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15627,7 +15629,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15684,7 +15686,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15741,7 +15743,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15803,7 +15805,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15860,7 +15862,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15922,7 +15924,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15984,7 +15986,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16046,7 +16048,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16108,7 +16110,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16170,7 +16172,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16227,7 +16229,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16284,7 +16286,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16346,7 +16348,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16403,7 +16405,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16460,7 +16462,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16517,7 +16519,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16574,7 +16576,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16631,7 +16633,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16688,7 +16690,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16745,7 +16747,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16802,7 +16804,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16859,7 +16861,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16916,7 +16918,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16978,7 +16980,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17040,7 +17042,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17102,7 +17104,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17164,7 +17166,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17226,7 +17228,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17283,7 +17285,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17340,7 +17342,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17397,7 +17399,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17454,7 +17456,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17511,7 +17513,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17568,7 +17570,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17630,7 +17632,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17687,7 +17689,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17744,7 +17746,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17801,7 +17803,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17858,7 +17860,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17915,7 +17917,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17977,7 +17979,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18039,7 +18041,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18101,7 +18103,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18158,7 +18160,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18215,7 +18217,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18272,7 +18274,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18334,7 +18336,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18391,7 +18393,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18448,7 +18450,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18505,7 +18507,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18562,7 +18564,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18619,7 +18621,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18676,7 +18678,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18733,7 +18735,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18795,7 +18797,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18852,7 +18854,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18914,7 +18916,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18971,7 +18973,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19028,7 +19030,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19085,7 +19087,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19142,7 +19144,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19199,7 +19201,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19256,7 +19258,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19313,7 +19315,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19370,7 +19372,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19427,7 +19429,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19484,7 +19486,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19541,7 +19543,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19603,7 +19605,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19665,7 +19667,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19722,7 +19724,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19779,7 +19781,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19841,7 +19843,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19903,7 +19905,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19960,7 +19962,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20037,7 +20039,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20094,7 +20096,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20151,7 +20153,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20208,7 +20210,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20265,7 +20267,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20322,7 +20324,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20379,7 +20381,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20441,7 +20443,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20498,7 +20500,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20555,7 +20557,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20612,7 +20614,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20669,7 +20671,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20726,7 +20728,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20783,7 +20785,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20840,7 +20842,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20897,7 +20899,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20954,7 +20956,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21011,7 +21013,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21073,7 +21075,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21135,7 +21137,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21197,7 +21199,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21259,7 +21261,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21321,7 +21323,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21383,7 +21385,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21445,7 +21447,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21502,7 +21504,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21564,7 +21566,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21626,7 +21628,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21683,7 +21685,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21740,7 +21742,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21797,7 +21799,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21854,7 +21856,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21911,7 +21913,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21968,7 +21970,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22025,7 +22027,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22082,7 +22084,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22139,7 +22141,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22196,7 +22198,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22253,7 +22255,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22310,7 +22312,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22367,7 +22369,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22424,7 +22426,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22481,7 +22483,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22538,7 +22540,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22595,7 +22597,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22652,7 +22654,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22709,7 +22711,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22766,7 +22768,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22823,7 +22825,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22880,7 +22882,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22937,7 +22939,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22994,7 +22996,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23051,7 +23053,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23113,7 +23115,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23170,7 +23172,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23229,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23284,7 +23286,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23341,7 +23343,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23398,7 +23400,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23455,7 +23457,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23512,7 +23514,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23569,7 +23571,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23631,7 +23633,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23688,7 +23690,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23750,7 +23752,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23807,7 +23809,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23864,7 +23866,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23926,7 +23928,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23983,7 +23985,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24045,7 +24047,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24102,7 +24104,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24159,7 +24161,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24216,7 +24218,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24278,7 +24280,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24335,7 +24337,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24392,7 +24394,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24454,7 +24456,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24516,7 +24518,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24573,7 +24575,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24630,7 +24632,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24692,7 +24694,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24754,7 +24756,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24811,7 +24813,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24873,7 +24875,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24935,7 +24937,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24997,7 +24999,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25054,7 +25056,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25116,7 +25118,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25178,7 +25180,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25240,7 +25242,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25302,7 +25304,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25359,7 +25361,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25416,7 +25418,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25473,7 +25475,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25530,7 +25532,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25587,7 +25589,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25644,7 +25646,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25706,7 +25708,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25768,7 +25770,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25825,7 +25827,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25882,7 +25884,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25939,7 +25941,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26001,7 +26003,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26058,7 +26060,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26115,7 +26117,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26172,7 +26174,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26229,7 +26231,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26291,7 +26293,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26348,7 +26350,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26405,7 +26407,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26462,7 +26464,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26524,7 +26526,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26586,7 +26588,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26643,7 +26645,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26700,7 +26702,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26757,7 +26759,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26814,7 +26816,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26871,7 +26873,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26928,7 +26930,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26985,7 +26987,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27042,7 +27044,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27099,7 +27101,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27156,7 +27158,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27213,7 +27215,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27275,7 +27277,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27332,7 +27334,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27394,7 +27396,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27456,7 +27458,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27518,7 +27520,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27575,7 +27577,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27632,7 +27634,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27694,7 +27696,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27751,7 +27753,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27808,7 +27810,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27870,7 +27872,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27932,7 +27934,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27989,7 +27991,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28046,7 +28048,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28103,7 +28105,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28160,7 +28162,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28217,7 +28219,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28274,7 +28276,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28331,7 +28333,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28388,7 +28390,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28445,7 +28447,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28502,7 +28504,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28559,7 +28561,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28616,7 +28618,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28673,7 +28675,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28730,7 +28732,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28787,7 +28789,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28844,7 +28846,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28901,7 +28903,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28963,7 +28965,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29020,7 +29022,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29077,7 +29079,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29134,7 +29136,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29191,7 +29193,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29248,7 +29250,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29305,7 +29307,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29362,7 +29364,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29419,7 +29421,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29476,7 +29478,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29533,7 +29535,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29595,7 +29597,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29652,7 +29654,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29714,7 +29716,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29771,7 +29773,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29828,7 +29830,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29885,7 +29887,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29942,7 +29944,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29999,7 +30001,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30056,7 +30058,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30113,7 +30115,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30170,7 +30172,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30227,7 +30229,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30284,7 +30286,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30346,7 +30348,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30403,7 +30405,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30465,7 +30467,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30542,7 +30544,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30599,7 +30601,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30656,7 +30658,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30713,7 +30715,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30770,7 +30772,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30827,7 +30829,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30889,7 +30891,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30951,7 +30953,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31008,7 +31010,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31070,7 +31072,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31127,7 +31129,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31184,7 +31186,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31241,7 +31243,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31298,7 +31300,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31355,7 +31357,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31412,7 +31414,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31469,7 +31471,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31526,7 +31528,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31583,7 +31585,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31640,7 +31642,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31697,7 +31699,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31754,7 +31756,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31811,7 +31813,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31868,7 +31870,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31925,7 +31927,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31987,7 +31989,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32044,7 +32046,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32101,7 +32103,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32158,7 +32160,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32215,7 +32217,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32277,7 +32279,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32334,7 +32336,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32396,7 +32398,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32453,7 +32455,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32510,7 +32512,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32567,7 +32569,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32624,7 +32626,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32681,7 +32683,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32738,7 +32740,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32800,7 +32802,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32857,7 +32859,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32914,7 +32916,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32971,7 +32973,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33033,7 +33035,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33110,7 +33112,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33167,7 +33169,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33224,7 +33226,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33286,7 +33288,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33348,7 +33350,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33405,7 +33407,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33462,7 +33464,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33519,7 +33521,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33581,7 +33583,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33643,7 +33645,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33700,7 +33702,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33762,7 +33764,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33819,7 +33821,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44953</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45058</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45078</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44279</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44293</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44529</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43609</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43976</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44019</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44033</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44477</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>44602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44827</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44908</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44953</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45058</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45078</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44279</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44293</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44529</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43609</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43976</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44019</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44033</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44477</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>44602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44827</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44908</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>44806</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45091</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44776</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44806</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44062</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43948</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44050</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44799</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44806</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44953</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45058</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45078</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44279</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44293</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44529</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43609</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43976</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44019</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44033</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44279</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44477</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>44602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44806</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44827</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44908</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43437</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43535</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43705</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44293</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44791</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44861</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44900</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44945</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>45079</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43363</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43389</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43402</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43419</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43423</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43433</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43437</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43447</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43448</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43448</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43451</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43454</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>43455</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43455</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43472</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43476</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43490</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43602</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43607</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43619</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43622</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43626</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43641</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43643</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43656</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43657</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43661</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43662</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43671</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43678</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43682</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43684</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43689</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43696</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43696</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>43707</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>43738</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>43738</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>43739</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>43740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43770</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>43770</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>43783</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>43783</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43791</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43805</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>43812</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>43812</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43833</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43844</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43844</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43871</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43878</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43881</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43881</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43927</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>43929</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>43940</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>43949</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43966</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43976</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43979</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43985</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44000</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44005</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44033</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>44033</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44036</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44045</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44063</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44068</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44084</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44095</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44095</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44104</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44123</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44123</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44130</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44158</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44158</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44168</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44168</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44187</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44203</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44203</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44207</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44209</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44218</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44267</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44277</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44278</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44293</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44293</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44321</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44350</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44350</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44354</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44357</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44358</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44361</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44384</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44389</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44392</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44399</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44399</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44417</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>44434</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44441</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44446</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44455</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>44459</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44473</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44477</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44487</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44490</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44503</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44512</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44529</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44530</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44536</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44537</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44543</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44546</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44551</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44564</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44572</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44573</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44575</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44585</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44587</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44599</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44602</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44606</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44613</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44615</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44638</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44648</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44655</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>44680</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44687</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44690</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44693</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44694</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>44698</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>44704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44712</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44727</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44729</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44732</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44742</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44747</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44753</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>44764</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44774</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>44776</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44781</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44785</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44791</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44797</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44803</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44806</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>44823</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44834</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44837</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>44839</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44841</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44853</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>44855</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>44859</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>44860</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>44862</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>44866</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44872</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>44874</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>44875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44879</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44897</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44901</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>44902</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>44903</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44907</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>44908</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44911</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44914</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44915</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44916</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44917</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>44924</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>44928</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44929</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44936</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>44939</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>44945</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44951</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44966</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>44967</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>44973</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44977</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33226,7 +33226,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33645,7 +33645,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33702,7 +33702,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,14 +2390,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 1571-2022</t>
+          <t>A 46100-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44573</v>
+        <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2410,39 +2410,134 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>11.9</v>
+        <v>7.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>4</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5</v>
-      </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>7</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Knärot
+Garnlav
+Lunglav
+Dropptaggsvamp
+Svavelriska
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 46100-2021.xlsx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 46100-2021.png", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 46100-2021.png", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 1571-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Granticka
@@ -2453,87 +2548,87 @@
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 1571-2022.xlsx", "A 1571-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 1571-2022.png", "A 1571-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 1571-2022.docx", "A 1571-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 1571-2022.docx", "A 1571-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 1571-2022.docx", "A 1571-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 1571-2022.docx", "A 1571-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 37406-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>11.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>7</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>7</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>7</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -2544,92 +2639,92 @@
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37406-2022.xlsx", "A 37406-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37406-2022.png", "A 37406-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37406-2022.docx", "A 37406-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37406-2022.docx", "A 37406-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37406-2022.docx", "A 37406-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37406-2022.docx", "A 37406-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 26369-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45091</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>34</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>6</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>7</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Garnlav
@@ -2640,87 +2735,87 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 26369-2023.xlsx", "A 26369-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 26369-2023.png", "A 26369-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 26369-2023.docx", "A 26369-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 26369-2023.docx", "A 26369-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 26369-2023.docx", "A 26369-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 26369-2023.docx", "A 26369-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16508-2021</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44293</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>18.9</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>5</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>5</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>6</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -2730,87 +2825,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 16508-2021.xlsx", "A 16508-2021")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 16508-2021.png", "A 16508-2021")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 16508-2021.docx", "A 16508-2021")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 16508-2021.docx", "A 16508-2021")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 16508-2021.docx", "A 16508-2021")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 16508-2021.docx", "A 16508-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 31719-2022</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44776</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>4.2</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>6</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>6</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -2820,91 +2915,91 @@
 Vedtrappmossa</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 31719-2022.xlsx", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 31719-2022.png", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="U24">
+      <c r="U25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 31719-2022.png", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 31719-2022.docx", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 31719-2022.docx", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 31719-2022.docx", "A 31719-2022")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 31719-2022.docx", "A 31719-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 37398-2022</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>29.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>5</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>6</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Harticka
@@ -2914,87 +3009,87 @@
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37398-2022.xlsx", "A 37398-2022")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37398-2022.png", "A 37398-2022")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37398-2022.docx", "A 37398-2022")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37398-2022.docx", "A 37398-2022")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37398-2022.docx", "A 37398-2022")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37398-2022.docx", "A 37398-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 39021-2020</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44062</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>18</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>5</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>5</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>5</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Mörk kolflarnlav
@@ -3003,121 +3098,28 @@
 Vitplätt</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 39021-2020.xlsx", "A 39021-2020")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 39021-2020.png", "A 39021-2020")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 39021-2020.docx", "A 39021-2020")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 39021-2020.docx", "A 39021-2020")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 39021-2020.docx", "A 39021-2020")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 39021-2020.docx", "A 39021-2020")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 46100-2021</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44441</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Garnlav
-Lunglav
-Dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 46100-2021.xlsx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 46100-2021.png", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 46100-2021.png", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 46100-2021.docx", "A 46100-2021")</f>
         <v/>
       </c>
     </row>
@@ -3131,7 +3133,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3225,7 +3227,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3318,7 +3320,7 @@
         <v>43948</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3406,7 +3408,7 @@
         <v>44050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3501,7 @@
         <v>44074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3592,7 +3594,7 @@
         <v>44607</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3684,7 +3686,7 @@
         <v>44712</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3781,7 +3783,7 @@
         <v>44799</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3874,7 +3876,7 @@
         <v>44806</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3962,7 +3964,7 @@
         <v>44953</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4054,7 +4056,7 @@
         <v>45058</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4147,7 +4149,7 @@
         <v>45078</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4235,7 +4237,7 @@
         <v>44111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4322,7 +4324,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4409,7 +4411,7 @@
         <v>44293</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4496,7 +4498,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4583,7 +4585,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4674,7 +4676,7 @@
         <v>43609</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4760,7 +4762,7 @@
         <v>43976</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4851,7 +4853,7 @@
         <v>44019</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4942,7 +4944,7 @@
         <v>44033</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5033,7 +5035,7 @@
         <v>44148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5124,7 +5126,7 @@
         <v>44279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5210,7 +5212,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5301,7 +5303,7 @@
         <v>44602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5387,7 +5389,7 @@
         <v>44806</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5473,7 +5475,7 @@
         <v>44827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5564,7 +5566,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5654,7 +5656,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5740,7 +5742,7 @@
         <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5826,7 +5828,7 @@
         <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5917,7 +5919,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6002,7 +6004,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6087,7 +6089,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6172,7 +6174,7 @@
         <v>43705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6262,7 +6264,7 @@
         <v>43784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6352,7 +6354,7 @@
         <v>44033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6442,7 +6444,7 @@
         <v>44053</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6532,7 +6534,7 @@
         <v>44293</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6617,7 +6619,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6707,7 +6709,7 @@
         <v>44529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6792,7 +6794,7 @@
         <v>44735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6877,7 +6879,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6966,7 +6968,7 @@
         <v>44791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7056,7 +7058,7 @@
         <v>44826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7141,7 +7143,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7231,7 +7233,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7321,7 +7323,7 @@
         <v>44861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7411,7 +7413,7 @@
         <v>44875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7501,7 +7503,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7586,7 +7588,7 @@
         <v>44945</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7671,7 +7673,7 @@
         <v>44977</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7760,7 +7762,7 @@
         <v>45079</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7850,7 +7852,7 @@
         <v>45126</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7940,7 +7942,7 @@
         <v>45145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8030,7 +8032,7 @@
         <v>43334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8087,7 +8089,7 @@
         <v>43342</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8144,7 +8146,7 @@
         <v>43363</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8206,7 +8208,7 @@
         <v>43389</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8268,7 +8270,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8330,7 +8332,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8392,7 +8394,7 @@
         <v>43404</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8454,7 +8456,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8511,7 +8513,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8568,7 +8570,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8625,7 +8627,7 @@
         <v>43423</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8682,7 +8684,7 @@
         <v>43430</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8739,7 +8741,7 @@
         <v>43431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8796,7 +8798,7 @@
         <v>43433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8853,7 +8855,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8910,7 +8912,7 @@
         <v>43437</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8967,7 +8969,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9024,7 +9026,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9081,7 +9083,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9138,7 +9140,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9195,7 +9197,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9252,7 +9254,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9309,7 +9311,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9366,7 +9368,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9423,7 +9425,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9480,7 +9482,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9537,7 +9539,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9594,7 +9596,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9651,7 +9653,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9708,7 +9710,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9770,7 +9772,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9832,7 +9834,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9889,7 +9891,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9951,7 +9953,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10008,7 +10010,7 @@
         <v>43472</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10065,7 +10067,7 @@
         <v>43476</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10127,7 +10129,7 @@
         <v>43490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10184,7 +10186,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10241,7 +10243,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10303,7 +10305,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10360,7 +10362,7 @@
         <v>43521</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10417,7 +10419,7 @@
         <v>43523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10474,7 +10476,7 @@
         <v>43529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10531,7 +10533,7 @@
         <v>43537</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10588,7 +10590,7 @@
         <v>43556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10645,7 +10647,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10702,7 +10704,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10759,7 +10761,7 @@
         <v>43601</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10816,7 +10818,7 @@
         <v>43602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10873,7 +10875,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10930,7 +10932,7 @@
         <v>43607</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10987,7 +10989,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11049,7 +11051,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11106,7 +11108,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11163,7 +11165,7 @@
         <v>43622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11225,7 +11227,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11282,7 +11284,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11344,7 +11346,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11401,7 +11403,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11463,7 +11465,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11525,7 +11527,7 @@
         <v>43641</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11587,7 +11589,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11649,7 +11651,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11711,7 +11713,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11773,7 +11775,7 @@
         <v>43656</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11830,7 +11832,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11887,7 +11889,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11944,7 +11946,7 @@
         <v>43661</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12001,7 +12003,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12058,7 +12060,7 @@
         <v>43671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12120,7 +12122,7 @@
         <v>43678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12182,7 +12184,7 @@
         <v>43682</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12244,7 +12246,7 @@
         <v>43684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12306,7 +12308,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12368,7 +12370,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12430,7 +12432,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12492,7 +12494,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12554,7 +12556,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12611,7 +12613,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12673,7 +12675,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12735,7 +12737,7 @@
         <v>43703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12792,7 +12794,7 @@
         <v>43705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12854,7 +12856,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12916,7 +12918,7 @@
         <v>43712</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12973,7 +12975,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13030,7 +13032,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13087,7 +13089,7 @@
         <v>43738</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13144,7 +13146,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13206,7 +13208,7 @@
         <v>43739</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13263,7 +13265,7 @@
         <v>43740</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13320,7 +13322,7 @@
         <v>43745</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13377,7 +13379,7 @@
         <v>43747</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13434,7 +13436,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13496,7 +13498,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13553,7 +13555,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13610,7 +13612,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13667,7 +13669,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13724,7 +13726,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13781,7 +13783,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13838,7 +13840,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13895,7 +13897,7 @@
         <v>43805</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13952,7 +13954,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14009,7 +14011,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14066,7 +14068,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14123,7 +14125,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14180,7 +14182,7 @@
         <v>43812</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14237,7 +14239,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14294,7 +14296,7 @@
         <v>43833</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14351,7 +14353,7 @@
         <v>43844</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14408,7 +14410,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14465,7 +14467,7 @@
         <v>43860</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14522,7 +14524,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14579,7 +14581,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14636,7 +14638,7 @@
         <v>43878</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14693,7 +14695,7 @@
         <v>43881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14750,7 +14752,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14807,7 +14809,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14864,7 +14866,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14926,7 +14928,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14988,7 +14990,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15050,7 +15052,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15112,7 +15114,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15169,7 +15171,7 @@
         <v>43927</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15226,7 +15228,7 @@
         <v>43929</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15283,7 +15285,7 @@
         <v>43940</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15340,7 +15342,7 @@
         <v>43949</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15397,7 +15399,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15454,7 +15456,7 @@
         <v>43976</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15516,7 +15518,7 @@
         <v>43979</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15578,7 +15580,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15635,7 +15637,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15697,7 +15699,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15754,7 +15756,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15811,7 +15813,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15868,7 +15870,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15925,7 +15927,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15987,7 +15989,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16044,7 +16046,7 @@
         <v>44005</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16106,7 +16108,7 @@
         <v>44007</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16168,7 +16170,7 @@
         <v>44019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16230,7 +16232,7 @@
         <v>44033</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16292,7 +16294,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16354,7 +16356,7 @@
         <v>44035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16411,7 +16413,7 @@
         <v>44036</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16468,7 +16470,7 @@
         <v>44045</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16530,7 +16532,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16587,7 +16589,7 @@
         <v>44062</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16644,7 +16646,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16701,7 +16703,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16758,7 +16760,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16815,7 +16817,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16872,7 +16874,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16929,7 +16931,7 @@
         <v>44068</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16986,7 +16988,7 @@
         <v>44083</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17043,7 +17045,7 @@
         <v>44084</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17100,7 +17102,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17162,7 +17164,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17224,7 +17226,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17286,7 +17288,7 @@
         <v>44103</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17348,7 +17350,7 @@
         <v>44104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17410,7 +17412,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17467,7 +17469,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17524,7 +17526,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17581,7 +17583,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17638,7 +17640,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17695,7 +17697,7 @@
         <v>44126</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17752,7 +17754,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17814,7 +17816,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17871,7 +17873,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17928,7 +17930,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17985,7 +17987,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18042,7 +18044,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18099,7 +18101,7 @@
         <v>44168</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18161,7 +18163,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18223,7 +18225,7 @@
         <v>44172</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18285,7 +18287,7 @@
         <v>44187</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18342,7 +18344,7 @@
         <v>44201</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18399,7 +18401,7 @@
         <v>44203</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18456,7 +18458,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18518,7 +18520,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18575,7 +18577,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18632,7 +18634,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18689,7 +18691,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18746,7 +18748,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18803,7 +18805,7 @@
         <v>44218</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18860,7 +18862,7 @@
         <v>44224</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18917,7 +18919,7 @@
         <v>44245</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18979,7 +18981,7 @@
         <v>44253</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19036,7 +19038,7 @@
         <v>44267</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19098,7 +19100,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19155,7 +19157,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19212,7 +19214,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19269,7 +19271,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19326,7 +19328,7 @@
         <v>44278</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19383,7 +19385,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19440,7 +19442,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19497,7 +19499,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19554,7 +19556,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19611,7 +19613,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19668,7 +19670,7 @@
         <v>44321</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19725,7 +19727,7 @@
         <v>44349</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19787,7 +19789,7 @@
         <v>44350</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19849,7 +19851,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19906,7 +19908,7 @@
         <v>44354</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19963,7 +19965,7 @@
         <v>44357</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20025,7 +20027,7 @@
         <v>44358</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20087,7 +20089,7 @@
         <v>44361</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20144,7 +20146,7 @@
         <v>44384</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20221,7 +20223,7 @@
         <v>44389</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20278,7 +20280,7 @@
         <v>44392</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20335,7 +20337,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20392,7 +20394,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20449,7 +20451,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20506,7 +20508,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20563,7 +20565,7 @@
         <v>44417</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20625,7 +20627,7 @@
         <v>44434</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20682,7 +20684,7 @@
         <v>44435</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20739,7 +20741,7 @@
         <v>44438</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20796,7 +20798,7 @@
         <v>44441</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20853,7 +20855,7 @@
         <v>44445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20910,7 +20912,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20967,7 +20969,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21024,7 +21026,7 @@
         <v>44455</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21081,7 +21083,7 @@
         <v>44459</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21138,7 +21140,7 @@
         <v>44462</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21200,7 +21202,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21262,7 +21264,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21324,7 +21326,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21386,7 +21388,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21448,7 +21450,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21510,7 +21512,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21572,7 +21574,7 @@
         <v>44487</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21629,7 +21631,7 @@
         <v>44490</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21691,7 +21693,7 @@
         <v>44503</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21753,7 +21755,7 @@
         <v>44512</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21810,7 +21812,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21867,7 +21869,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21924,7 +21926,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21981,7 +21983,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22038,7 +22040,7 @@
         <v>44530</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22095,7 +22097,7 @@
         <v>44536</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22152,7 +22154,7 @@
         <v>44537</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22209,7 +22211,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22266,7 +22268,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22323,7 +22325,7 @@
         <v>44546</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22380,7 +22382,7 @@
         <v>44551</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22437,7 +22439,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22494,7 +22496,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22551,7 +22553,7 @@
         <v>44572</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22608,7 +22610,7 @@
         <v>44573</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22665,7 +22667,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22722,7 +22724,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22779,7 +22781,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22836,7 +22838,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22893,7 +22895,7 @@
         <v>44585</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22950,7 +22952,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23007,7 +23009,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23064,7 +23066,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23121,7 +23123,7 @@
         <v>44599</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23178,7 +23180,7 @@
         <v>44602</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23240,7 +23242,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23297,7 +23299,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23354,7 +23356,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23411,7 +23413,7 @@
         <v>44613</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23468,7 +23470,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23525,7 +23527,7 @@
         <v>44638</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23582,7 +23584,7 @@
         <v>44648</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23639,7 +23641,7 @@
         <v>44655</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23696,7 +23698,7 @@
         <v>44680</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23758,7 +23760,7 @@
         <v>44687</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23815,7 +23817,7 @@
         <v>44690</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23877,7 +23879,7 @@
         <v>44693</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23934,7 +23936,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23991,7 +23993,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24053,7 +24055,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24110,7 +24112,7 @@
         <v>44704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24172,7 +24174,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24229,7 +24231,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24286,7 +24288,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24343,7 +24345,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24405,7 +24407,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24462,7 +24464,7 @@
         <v>44727</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24519,7 +24521,7 @@
         <v>44729</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24581,7 +24583,7 @@
         <v>44732</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24643,7 +24645,7 @@
         <v>44733</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24700,7 +24702,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24757,7 +24759,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24819,7 +24821,7 @@
         <v>44739</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24881,7 +24883,7 @@
         <v>44740</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24938,7 +24940,7 @@
         <v>44742</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25000,7 +25002,7 @@
         <v>44747</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25062,7 +25064,7 @@
         <v>44753</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25124,7 +25126,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25181,7 +25183,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25243,7 +25245,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25305,7 +25307,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25367,7 +25369,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25429,7 +25431,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25486,7 +25488,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25543,7 +25545,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25600,7 +25602,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25657,7 +25659,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25714,7 +25716,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25771,7 +25773,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25833,7 +25835,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25895,7 +25897,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25952,7 +25954,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26009,7 +26011,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26066,7 +26068,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26128,7 +26130,7 @@
         <v>44806</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26185,7 +26187,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26242,7 +26244,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26299,7 +26301,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26356,7 +26358,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26418,7 +26420,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26475,7 +26477,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26532,7 +26534,7 @@
         <v>44837</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26589,7 +26591,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26651,7 +26653,7 @@
         <v>44841</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26713,7 +26715,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26770,7 +26772,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26827,7 +26829,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26884,7 +26886,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26941,7 +26943,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26998,7 +27000,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27055,7 +27057,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27112,7 +27114,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27169,7 +27171,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27226,7 +27228,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27283,7 +27285,7 @@
         <v>44860</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27340,7 +27342,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27402,7 +27404,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27459,7 +27461,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27521,7 +27523,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27583,7 +27585,7 @@
         <v>44872</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27645,7 +27647,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27702,7 +27704,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27759,7 +27761,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27821,7 +27823,7 @@
         <v>44879</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27878,7 +27880,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27935,7 +27937,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27997,7 +27999,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28059,7 +28061,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28116,7 +28118,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28173,7 +28175,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28230,7 +28232,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28287,7 +28289,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28344,7 +28346,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28401,7 +28403,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28458,7 +28460,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28515,7 +28517,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28572,7 +28574,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28629,7 +28631,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28686,7 +28688,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28743,7 +28745,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28800,7 +28802,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28857,7 +28859,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28914,7 +28916,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28971,7 +28973,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29028,7 +29030,7 @@
         <v>44911</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29090,7 +29092,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29147,7 +29149,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29204,7 +29206,7 @@
         <v>44915</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29261,7 +29263,7 @@
         <v>44916</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29318,7 +29320,7 @@
         <v>44917</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29375,7 +29377,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29432,7 +29434,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29489,7 +29491,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29546,7 +29548,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29603,7 +29605,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29660,7 +29662,7 @@
         <v>44928</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29722,7 +29724,7 @@
         <v>44929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29779,7 +29781,7 @@
         <v>44936</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29841,7 +29843,7 @@
         <v>44939</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29898,7 +29900,7 @@
         <v>44942</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29955,7 +29957,7 @@
         <v>44945</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30012,7 +30014,7 @@
         <v>44951</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30069,7 +30071,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30126,7 +30128,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30183,7 +30185,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30240,7 +30242,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30297,7 +30299,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30354,7 +30356,7 @@
         <v>44967</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30411,7 +30413,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30473,7 +30475,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30530,7 +30532,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30592,7 +30594,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30649,7 +30651,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30706,7 +30708,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30763,7 +30765,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30820,7 +30822,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30877,7 +30879,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30939,7 +30941,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31001,7 +31003,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31058,7 +31060,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31120,7 +31122,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31177,7 +31179,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31234,7 +31236,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31291,7 +31293,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31348,7 +31350,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31405,7 +31407,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31462,7 +31464,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31519,7 +31521,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31576,7 +31578,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31633,7 +31635,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31690,7 +31692,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31747,7 +31749,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31804,7 +31806,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31861,7 +31863,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31918,7 +31920,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31975,7 +31977,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32037,7 +32039,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32094,7 +32096,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32151,7 +32153,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32208,7 +32210,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32265,7 +32267,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32327,7 +32329,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32384,7 +32386,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32446,7 +32448,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32503,7 +32505,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32560,7 +32562,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32617,7 +32619,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32674,7 +32676,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32731,7 +32733,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32788,7 +32790,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32850,7 +32852,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32907,7 +32909,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32964,7 +32966,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33021,7 +33023,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33083,7 +33085,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33160,7 +33162,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33217,7 +33219,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33274,7 +33276,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33336,7 +33338,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33398,7 +33400,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33455,7 +33457,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33512,7 +33514,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33569,7 +33571,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33631,7 +33633,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33693,7 +33695,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33750,7 +33752,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33812,7 +33814,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33869,7 +33871,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43948</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44607</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44712</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44799</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44806</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44953</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>45058</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>45078</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44293</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43609</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43976</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44019</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44033</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>44148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>44279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44806</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44053</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44293</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>44735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>44945</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44977</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45079</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>45126</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43342</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43363</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43389</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>43404</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43423</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43430</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43437</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43472</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43476</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43521</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43537</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43601</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43607</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>43641</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43656</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43661</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43682</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43712</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43738</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43739</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43740</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43745</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43747</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>43805</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>43812</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>43833</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>43844</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>43860</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43878</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43927</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43929</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43940</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43949</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43976</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43979</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>44005</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44007</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44033</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>44036</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44045</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44062</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44068</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44083</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44084</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>44103</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>44104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44126</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44168</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44172</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44187</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44201</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44203</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44218</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44224</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44245</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>44253</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>44267</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>44278</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44321</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44349</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44350</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44354</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44357</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44358</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44361</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44384</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>44389</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>44392</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44417</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44434</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>44435</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44438</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44441</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44455</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44459</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>44462</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44487</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44490</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44503</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44512</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44530</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44536</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44537</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44546</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44551</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44572</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44573</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44585</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44599</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44602</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44613</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44638</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44648</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44655</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44680</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44687</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>44690</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44693</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44727</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44729</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44732</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44733</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44739</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44740</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44742</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44747</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44753</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44806</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44837</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44841</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>44860</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27585,7 +27585,7 @@
         <v>44872</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44879</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28061,7 +28061,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28175,7 +28175,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44911</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>44915</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>44916</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>44917</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44928</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>44936</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44939</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>44942</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>44945</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>44951</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30071,7 +30071,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30128,7 +30128,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30185,7 +30185,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30242,7 +30242,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30299,7 +30299,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44967</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32329,7 +32329,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32448,7 +32448,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33023,7 +33023,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33400,7 +33400,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33457,7 +33457,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33814,7 +33814,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33871,7 +33871,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3220,14 +3220,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 63268-2018</t>
+          <t>A 4716-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43426</v>
+        <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3239,25 +3239,20 @@
           <t>BERG</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3269,15 +3264,113 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Taggfingersvamp
+Garnlav
+Lunglav
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx", "A 4716-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx", "A 4716-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 63268-2018</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>43426</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -3285,87 +3378,87 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 63268-2018.xlsx", "A 63268-2018")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 63268-2018.png", "A 63268-2018")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 63268-2018.docx", "A 63268-2018")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 63268-2018.docx", "A 63268-2018")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 63268-2018.docx", "A 63268-2018")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 63268-2018.docx", "A 63268-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 20526-2020</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>4</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q31" t="n">
         <v>4</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Grynlav
 Olivbrun gytterlav
@@ -3373,92 +3466,92 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 20526-2020.xlsx", "A 20526-2020")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 20526-2020.png", "A 20526-2020")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 20526-2020.docx", "A 20526-2020")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 20526-2020.docx", "A 20526-2020")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 20526-2020.docx", "A 20526-2020")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 20526-2020.docx", "A 20526-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 36669-2020</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44050</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>2.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>4</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -3466,92 +3559,92 @@
 Skrovellav</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 36669-2020.xlsx", "A 36669-2020")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 36669-2020.png", "A 36669-2020")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 36669-2020.docx", "A 36669-2020")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 36669-2020.docx", "A 36669-2020")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 36669-2020.docx", "A 36669-2020")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 36669-2020.docx", "A 36669-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 41872-2020</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>4.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>3</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -3559,87 +3652,87 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 41872-2020.xlsx", "A 41872-2020")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 41872-2020.png", "A 41872-2020")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 41872-2020.docx", "A 41872-2020")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 41872-2020.docx", "A 41872-2020")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 41872-2020.docx", "A 41872-2020")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 41872-2020.docx", "A 41872-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 7891-2022</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44607</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>2.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>3</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K34" t="n">
         <v>1</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>2</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
@@ -3647,96 +3740,96 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 7891-2022.xlsx", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 7891-2022.png", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="U33">
+      <c r="U34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 7891-2022.png", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 7891-2022.docx", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 7891-2022.docx", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 7891-2022.docx", "A 7891-2022")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 7891-2022.docx", "A 7891-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 22333-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44712</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="C35" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>5.5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>3</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>4</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Gränsticka
@@ -3744,96 +3837,96 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 22333-2022.xlsx", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 22333-2022.png", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="U34">
+      <c r="U35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 22333-2022.png", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 22333-2022.docx", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 22333-2022.docx", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 22333-2022.docx", "A 22333-2022")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 22333-2022.docx", "A 22333-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 35742-2022</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44799</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>16.6</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>3</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>3</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>4</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Vedflamlav
@@ -3841,87 +3934,87 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 35742-2022.xlsx", "A 35742-2022")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 35742-2022.png", "A 35742-2022")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 35742-2022.docx", "A 35742-2022")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 35742-2022.docx", "A 35742-2022")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 35742-2022.docx", "A 35742-2022")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 35742-2022.docx", "A 35742-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 37381-2022</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="C37" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>29</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>4</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>4</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -3929,120 +4022,28 @@
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 37381-2022.xlsx", "A 37381-2022")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 37381-2022.png", "A 37381-2022")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 37381-2022.docx", "A 37381-2022")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 37381-2022.docx", "A 37381-2022")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 37381-2022.docx", "A 37381-2022")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 37381-2022.docx", "A 37381-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A 4716-2023</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Taggfingersvamp
-Garnlav
-Lunglav</t>
-        </is>
-      </c>
-      <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 4716-2023.xlsx", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 4716-2023.png", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 4716-2023.png", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 4716-2023.docx", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 4716-2023.docx", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 4716-2023.docx", "A 4716-2023")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 4716-2023.docx", "A 4716-2023")</f>
         <v/>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
         <v>45058</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4149,7 +4150,7 @@
         <v>45078</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4237,7 +4238,7 @@
         <v>44111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4324,7 +4325,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4411,7 +4412,7 @@
         <v>44293</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4498,7 +4499,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4585,7 +4586,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4676,7 +4677,7 @@
         <v>43609</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4762,7 +4763,7 @@
         <v>43976</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4853,7 +4854,7 @@
         <v>44019</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4944,7 +4945,7 @@
         <v>44033</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5035,7 +5036,7 @@
         <v>44148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5126,7 +5127,7 @@
         <v>44279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5212,7 +5213,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5303,7 +5304,7 @@
         <v>44602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5389,7 +5390,7 @@
         <v>44806</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5475,7 +5476,7 @@
         <v>44827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5566,7 +5567,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5656,7 +5657,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5742,7 +5743,7 @@
         <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5828,7 +5829,7 @@
         <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5919,7 +5920,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6004,7 +6005,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6089,7 +6090,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6174,7 +6175,7 @@
         <v>43705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6264,7 +6265,7 @@
         <v>43784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6354,7 +6355,7 @@
         <v>44033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6444,7 +6445,7 @@
         <v>44053</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6534,7 +6535,7 @@
         <v>44293</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6619,7 +6620,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6709,7 +6710,7 @@
         <v>44529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6794,7 +6795,7 @@
         <v>44735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6879,7 +6880,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6968,7 +6969,7 @@
         <v>44791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7058,7 +7059,7 @@
         <v>44826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7143,7 +7144,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7233,7 +7234,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7323,7 +7324,7 @@
         <v>44861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7413,7 +7414,7 @@
         <v>44875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7503,7 +7504,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7588,7 +7589,7 @@
         <v>44945</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7673,7 +7674,7 @@
         <v>44977</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7762,7 +7763,7 @@
         <v>45079</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7852,7 +7853,7 @@
         <v>45126</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7942,7 +7943,7 @@
         <v>45145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8032,7 +8033,7 @@
         <v>43334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8089,7 +8090,7 @@
         <v>43342</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8146,7 +8147,7 @@
         <v>43363</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8208,7 +8209,7 @@
         <v>43389</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8270,7 +8271,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8332,7 +8333,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8394,7 +8395,7 @@
         <v>43404</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8456,7 +8457,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8513,7 +8514,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8570,7 +8571,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8627,7 +8628,7 @@
         <v>43423</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8684,7 +8685,7 @@
         <v>43430</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8741,7 +8742,7 @@
         <v>43431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8798,7 +8799,7 @@
         <v>43433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8855,7 +8856,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8912,7 +8913,7 @@
         <v>43437</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8969,7 +8970,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9026,7 +9027,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9083,7 +9084,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9140,7 +9141,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9197,7 +9198,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9254,7 +9255,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9311,7 +9312,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9368,7 +9369,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9425,7 +9426,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9482,7 +9483,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9539,7 +9540,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9596,7 +9597,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9653,7 +9654,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9710,7 +9711,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9772,7 +9773,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9834,7 +9835,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9891,7 +9892,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9953,7 +9954,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10010,7 +10011,7 @@
         <v>43472</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10067,7 +10068,7 @@
         <v>43476</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10129,7 +10130,7 @@
         <v>43490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10186,7 +10187,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10243,7 +10244,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10305,7 +10306,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10362,7 +10363,7 @@
         <v>43521</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10419,7 +10420,7 @@
         <v>43523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10476,7 +10477,7 @@
         <v>43529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10533,7 +10534,7 @@
         <v>43537</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10590,7 +10591,7 @@
         <v>43556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10647,7 +10648,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10704,7 +10705,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10761,7 +10762,7 @@
         <v>43601</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10818,7 +10819,7 @@
         <v>43602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10875,7 +10876,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10932,7 +10933,7 @@
         <v>43607</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10989,7 +10990,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11051,7 +11052,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11108,7 +11109,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11165,7 +11166,7 @@
         <v>43622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11227,7 +11228,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11284,7 +11285,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11346,7 +11347,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11403,7 +11404,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11465,7 +11466,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11527,7 +11528,7 @@
         <v>43641</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11589,7 +11590,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11651,7 +11652,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11713,7 +11714,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11775,7 +11776,7 @@
         <v>43656</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11832,7 +11833,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11889,7 +11890,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11946,7 +11947,7 @@
         <v>43661</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12003,7 +12004,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12060,7 +12061,7 @@
         <v>43671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12122,7 +12123,7 @@
         <v>43678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12184,7 +12185,7 @@
         <v>43682</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12246,7 +12247,7 @@
         <v>43684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12308,7 +12309,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12370,7 +12371,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12432,7 +12433,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12494,7 +12495,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12556,7 +12557,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12613,7 +12614,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12675,7 +12676,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12737,7 +12738,7 @@
         <v>43703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12794,7 +12795,7 @@
         <v>43705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12856,7 +12857,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12918,7 +12919,7 @@
         <v>43712</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12975,7 +12976,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13032,7 +13033,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13089,7 +13090,7 @@
         <v>43738</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13146,7 +13147,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13208,7 +13209,7 @@
         <v>43739</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13265,7 +13266,7 @@
         <v>43740</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13322,7 +13323,7 @@
         <v>43745</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13379,7 +13380,7 @@
         <v>43747</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13436,7 +13437,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13498,7 +13499,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13555,7 +13556,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13612,7 +13613,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13669,7 +13670,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13726,7 +13727,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13783,7 +13784,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13840,7 +13841,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13897,7 +13898,7 @@
         <v>43805</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13954,7 +13955,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14011,7 +14012,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14068,7 +14069,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14125,7 +14126,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14182,7 +14183,7 @@
         <v>43812</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14239,7 +14240,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14296,7 +14297,7 @@
         <v>43833</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14353,7 +14354,7 @@
         <v>43844</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14410,7 +14411,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14467,7 +14468,7 @@
         <v>43860</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14524,7 +14525,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14581,7 +14582,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14638,7 +14639,7 @@
         <v>43878</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14695,7 +14696,7 @@
         <v>43881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14752,7 +14753,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14809,7 +14810,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14866,7 +14867,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14928,7 +14929,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14990,7 +14991,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15052,7 +15053,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15114,7 +15115,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15171,7 +15172,7 @@
         <v>43927</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15228,7 +15229,7 @@
         <v>43929</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15285,7 +15286,7 @@
         <v>43940</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15342,7 +15343,7 @@
         <v>43949</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15399,7 +15400,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15456,7 +15457,7 @@
         <v>43976</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15518,7 +15519,7 @@
         <v>43979</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15580,7 +15581,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15637,7 +15638,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15699,7 +15700,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15756,7 +15757,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15813,7 +15814,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15870,7 +15871,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15927,7 +15928,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15989,7 +15990,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16046,7 +16047,7 @@
         <v>44005</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16108,7 +16109,7 @@
         <v>44007</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16170,7 +16171,7 @@
         <v>44019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16232,7 +16233,7 @@
         <v>44033</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16294,7 +16295,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16356,7 +16357,7 @@
         <v>44035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16413,7 +16414,7 @@
         <v>44036</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16470,7 +16471,7 @@
         <v>44045</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16532,7 +16533,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16589,7 +16590,7 @@
         <v>44062</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16646,7 +16647,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16703,7 +16704,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16760,7 +16761,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16817,7 +16818,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16874,7 +16875,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16931,7 +16932,7 @@
         <v>44068</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16988,7 +16989,7 @@
         <v>44083</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17045,7 +17046,7 @@
         <v>44084</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17102,7 +17103,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17164,7 +17165,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17226,7 +17227,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17288,7 +17289,7 @@
         <v>44103</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17350,7 +17351,7 @@
         <v>44104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17412,7 +17413,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17469,7 +17470,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17526,7 +17527,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17583,7 +17584,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17640,7 +17641,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17697,7 +17698,7 @@
         <v>44126</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17754,7 +17755,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17816,7 +17817,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17873,7 +17874,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17930,7 +17931,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17987,7 +17988,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18044,7 +18045,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18101,7 +18102,7 @@
         <v>44168</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18163,7 +18164,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18225,7 +18226,7 @@
         <v>44172</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18287,7 +18288,7 @@
         <v>44187</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18344,7 +18345,7 @@
         <v>44201</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18401,7 +18402,7 @@
         <v>44203</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18458,7 +18459,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18520,7 +18521,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18577,7 +18578,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18634,7 +18635,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18691,7 +18692,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18748,7 +18749,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18805,7 +18806,7 @@
         <v>44218</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18862,7 +18863,7 @@
         <v>44224</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18919,7 +18920,7 @@
         <v>44245</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18981,7 +18982,7 @@
         <v>44253</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19038,7 +19039,7 @@
         <v>44267</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19100,7 +19101,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19157,7 +19158,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19214,7 +19215,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19271,7 +19272,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19328,7 +19329,7 @@
         <v>44278</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19385,7 +19386,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19442,7 +19443,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19499,7 +19500,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19556,7 +19557,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19613,7 +19614,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19670,7 +19671,7 @@
         <v>44321</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19727,7 +19728,7 @@
         <v>44349</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19789,7 +19790,7 @@
         <v>44350</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19851,7 +19852,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19908,7 +19909,7 @@
         <v>44354</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19965,7 +19966,7 @@
         <v>44357</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20027,7 +20028,7 @@
         <v>44358</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20089,7 +20090,7 @@
         <v>44361</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20146,7 +20147,7 @@
         <v>44384</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20223,7 +20224,7 @@
         <v>44389</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20280,7 +20281,7 @@
         <v>44392</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20337,7 +20338,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20394,7 +20395,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20451,7 +20452,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20508,7 +20509,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20565,7 +20566,7 @@
         <v>44417</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20627,7 +20628,7 @@
         <v>44434</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20684,7 +20685,7 @@
         <v>44435</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20741,7 +20742,7 @@
         <v>44438</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20798,7 +20799,7 @@
         <v>44441</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20855,7 +20856,7 @@
         <v>44445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20912,7 +20913,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20969,7 +20970,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21026,7 +21027,7 @@
         <v>44455</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21083,7 +21084,7 @@
         <v>44459</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21140,7 +21141,7 @@
         <v>44462</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21202,7 +21203,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21264,7 +21265,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21326,7 +21327,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21388,7 +21389,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21450,7 +21451,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21512,7 +21513,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21574,7 +21575,7 @@
         <v>44487</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21631,7 +21632,7 @@
         <v>44490</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21693,7 +21694,7 @@
         <v>44503</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21755,7 +21756,7 @@
         <v>44512</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21812,7 +21813,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21869,7 +21870,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21926,7 +21927,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21983,7 +21984,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22040,7 +22041,7 @@
         <v>44530</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22097,7 +22098,7 @@
         <v>44536</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22154,7 +22155,7 @@
         <v>44537</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22211,7 +22212,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22268,7 +22269,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22325,7 +22326,7 @@
         <v>44546</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22382,7 +22383,7 @@
         <v>44551</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22439,7 +22440,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22496,7 +22497,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22553,7 +22554,7 @@
         <v>44572</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22610,7 +22611,7 @@
         <v>44573</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22667,7 +22668,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22724,7 +22725,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22781,7 +22782,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22838,7 +22839,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22895,7 +22896,7 @@
         <v>44585</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22952,7 +22953,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23009,7 +23010,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23066,7 +23067,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23123,7 +23124,7 @@
         <v>44599</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23180,7 +23181,7 @@
         <v>44602</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23242,7 +23243,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23299,7 +23300,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23356,7 +23357,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23413,7 +23414,7 @@
         <v>44613</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23470,7 +23471,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23527,7 +23528,7 @@
         <v>44638</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23584,7 +23585,7 @@
         <v>44648</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23641,7 +23642,7 @@
         <v>44655</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23698,7 +23699,7 @@
         <v>44680</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23760,7 +23761,7 @@
         <v>44687</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23817,7 +23818,7 @@
         <v>44690</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23879,7 +23880,7 @@
         <v>44693</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23936,7 +23937,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23993,7 +23994,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24055,7 +24056,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24112,7 +24113,7 @@
         <v>44704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24174,7 +24175,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24231,7 +24232,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24288,7 +24289,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24345,7 +24346,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24407,7 +24408,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24464,7 +24465,7 @@
         <v>44727</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24521,7 +24522,7 @@
         <v>44729</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24583,7 +24584,7 @@
         <v>44732</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24645,7 +24646,7 @@
         <v>44733</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24702,7 +24703,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24759,7 +24760,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24821,7 +24822,7 @@
         <v>44739</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24883,7 +24884,7 @@
         <v>44740</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24940,7 +24941,7 @@
         <v>44742</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25002,7 +25003,7 @@
         <v>44747</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25064,7 +25065,7 @@
         <v>44753</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25126,7 +25127,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25183,7 +25184,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25245,7 +25246,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25307,7 +25308,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25369,7 +25370,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25431,7 +25432,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25488,7 +25489,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25545,7 +25546,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25602,7 +25603,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25659,7 +25660,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25716,7 +25717,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25773,7 +25774,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25835,7 +25836,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25897,7 +25898,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25954,7 +25955,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26011,7 +26012,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26068,7 +26069,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26130,7 +26131,7 @@
         <v>44806</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26187,7 +26188,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26244,7 +26245,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26301,7 +26302,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26358,7 +26359,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26420,7 +26421,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26477,7 +26478,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26534,7 +26535,7 @@
         <v>44837</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26591,7 +26592,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26653,7 +26654,7 @@
         <v>44841</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26715,7 +26716,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26772,7 +26773,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26829,7 +26830,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26886,7 +26887,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26943,7 +26944,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27000,7 +27001,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27057,7 +27058,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27114,7 +27115,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27171,7 +27172,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27228,7 +27229,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27285,7 +27286,7 @@
         <v>44860</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27342,7 +27343,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27404,7 +27405,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27461,7 +27462,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27523,7 +27524,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27585,7 +27586,7 @@
         <v>44872</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27647,7 +27648,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27704,7 +27705,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27761,7 +27762,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27823,7 +27824,7 @@
         <v>44879</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27880,7 +27881,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27937,7 +27938,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27999,7 +28000,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28061,7 +28062,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28118,7 +28119,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28175,7 +28176,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28232,7 +28233,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28289,7 +28290,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28346,7 +28347,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28403,7 +28404,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28460,7 +28461,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28517,7 +28518,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28574,7 +28575,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28631,7 +28632,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28688,7 +28689,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28745,7 +28746,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28802,7 +28803,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28859,7 +28860,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28916,7 +28917,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28973,7 +28974,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29030,7 +29031,7 @@
         <v>44911</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29092,7 +29093,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29149,7 +29150,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29206,7 +29207,7 @@
         <v>44915</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29263,7 +29264,7 @@
         <v>44916</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29320,7 +29321,7 @@
         <v>44917</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29377,7 +29378,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29434,7 +29435,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29491,7 +29492,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29548,7 +29549,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29605,7 +29606,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29662,7 +29663,7 @@
         <v>44928</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29724,7 +29725,7 @@
         <v>44929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29781,7 +29782,7 @@
         <v>44936</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29843,7 +29844,7 @@
         <v>44939</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29900,7 +29901,7 @@
         <v>44942</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29957,7 +29958,7 @@
         <v>44945</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30014,7 +30015,7 @@
         <v>44951</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30071,7 +30072,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30128,7 +30129,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30185,7 +30186,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30242,7 +30243,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30299,7 +30300,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30356,7 +30357,7 @@
         <v>44967</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30413,7 +30414,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30475,7 +30476,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30532,7 +30533,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30594,7 +30595,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30651,7 +30652,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30708,7 +30709,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30765,7 +30766,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30822,7 +30823,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30879,7 +30880,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30941,7 +30942,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31003,7 +31004,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31060,7 +31061,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31122,7 +31123,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31179,7 +31180,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31236,7 +31237,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31293,7 +31294,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31350,7 +31351,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31407,7 +31408,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31464,7 +31465,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31521,7 +31522,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31578,7 +31579,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31635,7 +31636,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31692,7 +31693,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31749,7 +31750,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31806,7 +31807,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31863,7 +31864,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31920,7 +31921,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31977,7 +31978,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32039,7 +32040,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32096,7 +32097,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32153,7 +32154,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32210,7 +32211,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32267,7 +32268,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32329,7 +32330,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32386,7 +32387,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32448,7 +32449,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32505,7 +32506,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32562,7 +32563,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32619,7 +32620,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32676,7 +32677,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32733,7 +32734,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32790,7 +32791,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32852,7 +32853,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32909,7 +32910,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32966,7 +32967,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33023,7 +33024,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33085,7 +33086,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33162,7 +33163,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33219,7 +33220,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33276,7 +33277,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33338,7 +33339,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33400,7 +33401,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33457,7 +33458,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33514,7 +33515,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33571,7 +33572,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33633,7 +33634,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33695,7 +33696,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33752,7 +33753,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33814,7 +33815,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33871,7 +33872,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45062</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44123</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44791</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44799</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44799</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>45058</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>45078</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44293</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44529</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43609</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>43976</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44019</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44033</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44806</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44908</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43535</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>44033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44053</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44293</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>44735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44945</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44977</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45079</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45126</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>45145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43342</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43363</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43389</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43402</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43404</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43419</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>43423</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43430</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43431</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43437</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43448</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>43451</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43453</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43455</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43472</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43476</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43521</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43537</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>43556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>43579</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>43594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43601</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>43602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>43607</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43619</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43641</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>43656</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43661</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43682</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43689</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>43703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>43705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>43707</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>43712</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>43738</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>43739</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>43740</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>43745</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>43747</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>43783</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>43790</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>43791</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43805</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43812</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>43833</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>43844</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>43860</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>43878</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>43881</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>43894</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>43927</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>43929</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>43940</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>43949</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>43966</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>43976</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43979</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43985</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44000</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44005</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44007</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44019</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44033</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>44036</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>44045</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>44057</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>44062</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44063</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44068</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44083</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44084</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44103</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44123</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44126</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44168</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44172</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44187</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44201</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44203</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44209</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44218</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44224</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44245</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44253</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44267</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44277</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44278</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44321</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44349</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44350</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44354</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44357</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44358</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>44361</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44384</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44389</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>44392</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44399</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44417</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44434</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44435</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44438</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44441</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44446</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44455</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44459</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44462</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44473</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44477</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44487</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44490</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44503</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44512</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44529</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44530</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44536</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44537</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44543</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44546</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44551</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44564</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44572</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44573</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44575</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44585</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44587</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44599</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44602</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44613</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44638</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44648</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44655</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44680</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44687</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44690</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44693</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44694</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44727</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44729</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44732</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44733</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44735</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44739</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44740</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>44742</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44747</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44753</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44774</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25489,7 +25489,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>44781</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>44785</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>44791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44797</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>44802</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>44803</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44806</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44834</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44837</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44839</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44841</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44855</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44859</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>44860</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44862</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44866</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>44872</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44875</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44879</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44901</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44902</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44903</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44907</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44908</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44909</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44911</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>44914</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44915</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>44916</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>44917</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>44923</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44924</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44928</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44936</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44939</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44942</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44945</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>44951</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44965</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44967</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32853,7 +32853,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33515,7 +33515,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33572,7 +33572,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45062</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44354</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44578</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44253</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44123</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44791</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44799</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44967</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43609</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43976</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44019</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44279</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44806</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44966</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44986</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43535</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43784</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44033</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44053</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44735</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44791</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44826</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44833</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44900</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44945</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44977</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>45079</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45126</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>45145</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43363</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43389</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43404</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43409</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43419</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43423</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>43448</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43453</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43496</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43501</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43521</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43523</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43601</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43607</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43608</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43619</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43626</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43643</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43656</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43657</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>43661</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>43671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43678</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>43684</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>43689</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43696</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43740</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43745</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43747</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43760</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43770</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43783</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43791</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43805</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43844</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43860</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>43878</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43881</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43888</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43894</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43927</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>43929</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>43940</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>43949</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>43966</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>43985</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44000</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44005</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44007</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44033</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44036</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44083</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44084</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44123</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44126</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>44158</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44160</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44165</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44187</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44201</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44203</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44207</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44209</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44218</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44245</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>44253</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>44267</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44277</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44278</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44321</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44349</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44350</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44354</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44357</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44358</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44361</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44384</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44389</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>44392</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44399</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44417</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44434</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44435</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44438</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44441</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44446</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44455</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44459</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44462</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44473</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44477</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44487</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44503</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44512</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44529</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44530</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>44536</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>44537</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44543</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44546</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44564</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44572</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44575</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44585</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44586</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44587</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44602</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44606</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44613</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44615</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44638</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44648</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44655</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44680</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44687</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44690</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44694</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44712</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44725</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44727</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44729</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44732</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44733</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44735</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44739</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44740</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>44742</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44753</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>44774</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44785</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44791</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44797</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44802</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>44806</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44823</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44824</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>44837</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44839</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44845</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44853</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>44855</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>44859</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44860</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44872</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44874</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44879</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44901</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>44902</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44903</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29015,7 +29015,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>44911</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44914</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44915</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44916</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44917</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44924</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44928</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44929</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44939</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44942</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44945</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44951</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32604,7 +32604,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33556,7 +33556,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33613,7 +33613,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>45196</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45062</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44354</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44578</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44253</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44123</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44791</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43879</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44293</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44376</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44799</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44967</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43609</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43976</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44019</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44279</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44806</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44966</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44986</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43535</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43784</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44033</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44053</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>44529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44735</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44791</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44826</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44833</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44900</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44945</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44977</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>45079</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45126</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>45145</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43363</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43389</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43404</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43409</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43419</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43423</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>43448</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43453</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43496</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43501</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43521</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43523</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43601</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43607</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43608</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43619</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43626</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43643</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43656</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43657</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>43661</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>43671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43678</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>43684</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>43689</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43696</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43740</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43745</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43747</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43760</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43770</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43783</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43791</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43805</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43844</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43860</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>43878</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43881</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43888</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43894</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43927</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>43929</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>43940</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>43949</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>43966</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>43985</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44000</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44005</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44007</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44033</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44036</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44083</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44084</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44123</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44126</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>44158</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44160</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44165</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44187</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>44201</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>44203</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44207</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44209</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44218</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>44245</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>44253</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>44267</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44277</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44278</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44321</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44349</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44350</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44354</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44357</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44358</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44361</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44384</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44389</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>44392</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44399</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44417</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44434</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44435</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44438</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44441</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44446</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44455</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44459</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44462</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44473</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44477</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44487</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44503</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44512</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44529</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44530</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>44536</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>44537</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44543</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44546</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44564</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44572</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44575</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44585</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44586</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44587</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44602</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44606</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44613</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44615</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44638</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44648</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44655</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44680</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44687</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44690</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44694</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44712</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44725</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44727</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44729</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44732</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44733</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44735</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44739</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44740</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>44742</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44753</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>44774</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44785</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44791</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44797</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44802</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>44806</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44823</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>44824</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>44837</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>44839</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>44841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44845</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44853</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>44855</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>44859</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44860</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44872</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44874</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44879</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44901</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>44902</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>44903</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29015,7 +29015,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>44911</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44914</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44915</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44916</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44917</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44924</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44928</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44929</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29942,7 +29942,7 @@
         <v>44939</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29999,7 +29999,7 @@
         <v>44942</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30056,7 +30056,7 @@
         <v>44945</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44951</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32604,7 +32604,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33556,7 +33556,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33613,7 +33613,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>45196</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y526"/>
+  <dimension ref="A1:Y527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45062</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44354</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44578</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44253</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44123</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44791</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2123,59 +2123,155 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
+          <t>A 46100-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44441</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>8</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Knärot
+Garnlav
+Kolflarnlav
+Lunglav
+Dropptaggsvamp
+Svavelriska
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 46100-2021.xlsx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 46100-2021.png", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 46100-2021.png", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 46100-2021.docx", "A 46100-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>A 9174-2020</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43879</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>18.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>7</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Harticka
@@ -2186,87 +2282,87 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 9174-2020.xlsx", "A 9174-2020")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 9174-2020.png", "A 9174-2020")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 9174-2020.docx", "A 9174-2020")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 9174-2020.docx", "A 9174-2020")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 9174-2020.docx", "A 9174-2020")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 9174-2020.docx", "A 9174-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 16811-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44293</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>22.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>6</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>7</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -2277,87 +2373,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 16811-2021.xlsx", "A 16811-2021")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 16811-2021.png", "A 16811-2021")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 16811-2021.docx", "A 16811-2021")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 16811-2021.docx", "A 16811-2021")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 16811-2021.docx", "A 16811-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 16811-2021.docx", "A 16811-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 33196-2021</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44376</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>4</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>4</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>7</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -2368,123 +2464,28 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 33196-2021.xlsx", "A 33196-2021")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 33196-2021.png", "A 33196-2021")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 33196-2021.docx", "A 33196-2021")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 33196-2021.docx", "A 33196-2021")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 33196-2021.docx", "A 33196-2021")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 33196-2021.docx", "A 33196-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 46100-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44441</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BERG</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Doftticka
-Knärot
-Garnlav
-Lunglav
-Dropptaggsvamp
-Svavelriska
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/artfynd/A 46100-2021.xlsx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/kartor/A 46100-2021.png", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/knärot/A 46100-2021.png", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomål/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/klagomålsmail/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsyn/A 46100-2021.docx", "A 46100-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BERG/tillsynsmail/A 46100-2021.docx", "A 46100-2021")</f>
         <v/>
       </c>
     </row>
@@ -2498,7 +2499,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2589,7 +2590,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2680,7 +2681,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2776,7 +2777,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2866,7 +2867,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2961,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3051,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3139,7 +3140,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3233,7 +3234,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3326,7 +3327,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3419,7 +3420,7 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3507,7 +3508,7 @@
         <v>44050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3600,7 +3601,7 @@
         <v>44074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3693,7 +3694,7 @@
         <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3785,7 +3786,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3882,7 +3883,7 @@
         <v>44799</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3975,7 +3976,7 @@
         <v>44806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4063,7 +4064,7 @@
         <v>44967</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4155,7 +4156,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4248,7 +4249,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4336,7 +4337,7 @@
         <v>44111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4423,7 +4424,7 @@
         <v>44279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4510,7 +4511,7 @@
         <v>44293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4598,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4684,7 +4685,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4775,7 +4776,7 @@
         <v>43609</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4861,7 +4862,7 @@
         <v>43976</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4952,7 +4953,7 @@
         <v>44019</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5043,7 +5044,7 @@
         <v>44033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5134,7 +5135,7 @@
         <v>44148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5225,7 +5226,7 @@
         <v>44279</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5311,7 +5312,7 @@
         <v>44477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5402,7 +5403,7 @@
         <v>44602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5488,7 +5489,7 @@
         <v>44806</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5574,7 +5575,7 @@
         <v>44827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5665,7 +5666,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5755,7 +5756,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5841,7 +5842,7 @@
         <v>44966</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5927,7 +5928,7 @@
         <v>44986</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6018,7 +6019,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6103,7 +6104,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6188,7 +6189,7 @@
         <v>43535</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6273,7 +6274,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6363,7 +6364,7 @@
         <v>43784</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6453,7 +6454,7 @@
         <v>44033</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6543,7 +6544,7 @@
         <v>44053</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6633,7 +6634,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6718,7 +6719,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6808,7 +6809,7 @@
         <v>44529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6893,7 +6894,7 @@
         <v>44735</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6978,7 +6979,7 @@
         <v>44776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7067,7 +7068,7 @@
         <v>44791</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7157,7 +7158,7 @@
         <v>44826</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7242,7 +7243,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7332,7 +7333,7 @@
         <v>44833</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7422,7 +7423,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7512,7 +7513,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7602,7 +7603,7 @@
         <v>44900</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7687,7 +7688,7 @@
         <v>44945</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7772,7 +7773,7 @@
         <v>44977</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7861,7 +7862,7 @@
         <v>45079</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7951,7 +7952,7 @@
         <v>45126</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8041,7 +8042,7 @@
         <v>45145</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8131,7 +8132,7 @@
         <v>43334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8188,7 +8189,7 @@
         <v>43342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8245,7 +8246,7 @@
         <v>43363</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8307,7 +8308,7 @@
         <v>43389</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8369,7 +8370,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8431,7 +8432,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8493,7 +8494,7 @@
         <v>43404</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8555,7 +8556,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8612,7 +8613,7 @@
         <v>43409</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8669,7 +8670,7 @@
         <v>43419</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8726,7 +8727,7 @@
         <v>43423</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8783,7 +8784,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8840,7 +8841,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8897,7 +8898,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8954,7 +8955,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9011,7 +9012,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9068,7 +9069,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9125,7 +9126,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9182,7 +9183,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9239,7 +9240,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9296,7 +9297,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9353,7 +9354,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9410,7 +9411,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9467,7 +9468,7 @@
         <v>43448</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9524,7 +9525,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9581,7 +9582,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9638,7 +9639,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9695,7 +9696,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9752,7 +9753,7 @@
         <v>43453</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9809,7 +9810,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9871,7 +9872,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9933,7 +9934,7 @@
         <v>43454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9990,7 +9991,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10052,7 +10053,7 @@
         <v>43455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10109,7 +10110,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10166,7 +10167,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10228,7 +10229,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10285,7 +10286,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10342,7 +10343,7 @@
         <v>43496</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10404,7 +10405,7 @@
         <v>43501</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10461,7 +10462,7 @@
         <v>43521</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10518,7 +10519,7 @@
         <v>43523</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10575,7 +10576,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10632,7 +10633,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10689,7 +10690,7 @@
         <v>43556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10746,7 +10747,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10803,7 +10804,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10860,7 +10861,7 @@
         <v>43601</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10917,7 +10918,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10974,7 +10975,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11031,7 +11032,7 @@
         <v>43607</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11088,7 +11089,7 @@
         <v>43608</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11150,7 +11151,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11207,7 +11208,7 @@
         <v>43619</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11264,7 +11265,7 @@
         <v>43622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11326,7 +11327,7 @@
         <v>43626</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11383,7 +11384,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11445,7 +11446,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11502,7 +11503,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11564,7 +11565,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11626,7 +11627,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11688,7 +11689,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11750,7 +11751,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11812,7 +11813,7 @@
         <v>43643</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11874,7 +11875,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11931,7 +11932,7 @@
         <v>43656</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11988,7 +11989,7 @@
         <v>43657</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12045,7 +12046,7 @@
         <v>43661</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12102,7 +12103,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12159,7 +12160,7 @@
         <v>43671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12221,7 +12222,7 @@
         <v>43678</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12283,7 +12284,7 @@
         <v>43682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12345,7 +12346,7 @@
         <v>43684</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12407,7 +12408,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12469,7 +12470,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12531,7 +12532,7 @@
         <v>43689</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12593,7 +12594,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12655,7 +12656,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12712,7 +12713,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12774,7 +12775,7 @@
         <v>43696</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12836,7 +12837,7 @@
         <v>43703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12893,7 +12894,7 @@
         <v>43705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12955,7 +12956,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13017,7 +13018,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13074,7 +13075,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13131,7 +13132,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13188,7 +13189,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13245,7 +13246,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13307,7 +13308,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13364,7 +13365,7 @@
         <v>43740</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13421,7 +13422,7 @@
         <v>43745</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13478,7 +13479,7 @@
         <v>43747</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13535,7 +13536,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13597,7 +13598,7 @@
         <v>43760</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13654,7 +13655,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13711,7 +13712,7 @@
         <v>43770</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13768,7 +13769,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13825,7 +13826,7 @@
         <v>43783</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13882,7 +13883,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13939,7 +13940,7 @@
         <v>43791</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13996,7 +13997,7 @@
         <v>43805</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14053,7 +14054,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14110,7 +14111,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14167,7 +14168,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14224,7 +14225,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14281,7 +14282,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14338,7 +14339,7 @@
         <v>43812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14395,7 +14396,7 @@
         <v>43833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14452,7 +14453,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14509,7 +14510,7 @@
         <v>43844</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14566,7 +14567,7 @@
         <v>43860</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14623,7 +14624,7 @@
         <v>43866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14680,7 +14681,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14737,7 +14738,7 @@
         <v>43878</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14794,7 +14795,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14851,7 +14852,7 @@
         <v>43881</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14908,7 +14909,7 @@
         <v>43888</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14965,7 +14966,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15027,7 +15028,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15089,7 +15090,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15151,7 +15152,7 @@
         <v>43894</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15213,7 +15214,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15270,7 +15271,7 @@
         <v>43927</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15327,7 +15328,7 @@
         <v>43929</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15384,7 +15385,7 @@
         <v>43940</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15441,7 +15442,7 @@
         <v>43949</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15498,7 +15499,7 @@
         <v>43966</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15555,7 +15556,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15617,7 +15618,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15679,7 +15680,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15736,7 +15737,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15798,7 +15799,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15855,7 +15856,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15912,7 +15913,7 @@
         <v>43985</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15969,7 +15970,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16026,7 +16027,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16088,7 +16089,7 @@
         <v>44000</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16145,7 +16146,7 @@
         <v>44005</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16207,7 +16208,7 @@
         <v>44007</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16269,7 +16270,7 @@
         <v>44019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16331,7 +16332,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16393,7 +16394,7 @@
         <v>44033</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16455,7 +16456,7 @@
         <v>44035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16512,7 +16513,7 @@
         <v>44036</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16569,7 +16570,7 @@
         <v>44045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16631,7 +16632,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
         <v>44062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16745,7 +16746,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16916,7 +16917,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16973,7 +16974,7 @@
         <v>44063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17030,7 +17031,7 @@
         <v>44068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17087,7 +17088,7 @@
         <v>44083</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17144,7 +17145,7 @@
         <v>44084</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17201,7 +17202,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17263,7 +17264,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17325,7 +17326,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17387,7 +17388,7 @@
         <v>44103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17449,7 +17450,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17511,7 +17512,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17568,7 +17569,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17625,7 +17626,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17682,7 +17683,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17739,7 +17740,7 @@
         <v>44123</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17796,7 +17797,7 @@
         <v>44126</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17853,7 +17854,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17915,7 +17916,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17972,7 +17973,7 @@
         <v>44158</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18029,7 +18030,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18086,7 +18087,7 @@
         <v>44160</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18143,7 +18144,7 @@
         <v>44165</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18200,7 +18201,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18262,7 +18263,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18324,7 +18325,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18386,7 +18387,7 @@
         <v>44187</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18443,7 +18444,7 @@
         <v>44201</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18500,7 +18501,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18557,7 +18558,7 @@
         <v>44203</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18619,7 +18620,7 @@
         <v>44207</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18676,7 +18677,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18733,7 +18734,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18790,7 +18791,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18847,7 +18848,7 @@
         <v>44209</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18904,7 +18905,7 @@
         <v>44218</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18961,7 +18962,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19018,7 +19019,7 @@
         <v>44245</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19080,7 +19081,7 @@
         <v>44253</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19137,7 +19138,7 @@
         <v>44267</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19199,7 +19200,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19256,7 +19257,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19313,7 +19314,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19370,7 +19371,7 @@
         <v>44277</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19427,7 +19428,7 @@
         <v>44278</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19484,7 +19485,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19541,7 +19542,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19598,7 +19599,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19655,7 +19656,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19712,7 +19713,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19769,7 +19770,7 @@
         <v>44321</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19826,7 +19827,7 @@
         <v>44349</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19888,7 +19889,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19950,7 +19951,7 @@
         <v>44350</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20007,7 +20008,7 @@
         <v>44354</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20064,7 +20065,7 @@
         <v>44357</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20126,7 +20127,7 @@
         <v>44358</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20188,7 +20189,7 @@
         <v>44361</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20245,7 +20246,7 @@
         <v>44384</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20322,7 +20323,7 @@
         <v>44389</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20379,7 +20380,7 @@
         <v>44392</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20436,7 +20437,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20493,7 +20494,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20550,7 +20551,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20607,7 +20608,7 @@
         <v>44399</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20664,7 +20665,7 @@
         <v>44417</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20726,7 +20727,7 @@
         <v>44434</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20783,7 +20784,7 @@
         <v>44435</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20840,7 +20841,7 @@
         <v>44438</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20897,7 +20898,7 @@
         <v>44441</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20954,7 +20955,7 @@
         <v>44445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21011,7 +21012,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21068,7 +21069,7 @@
         <v>44446</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21125,7 +21126,7 @@
         <v>44455</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21182,7 +21183,7 @@
         <v>44459</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21239,7 +21240,7 @@
         <v>44462</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21301,7 +21302,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21363,7 +21364,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21425,7 +21426,7 @@
         <v>44473</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21487,7 +21488,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21549,7 +21550,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21611,7 +21612,7 @@
         <v>44477</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21673,7 +21674,7 @@
         <v>44487</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21730,7 +21731,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21792,7 +21793,7 @@
         <v>44503</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21854,7 +21855,7 @@
         <v>44512</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21911,7 +21912,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21968,7 +21969,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22025,7 +22026,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22082,7 +22083,7 @@
         <v>44529</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22139,7 +22140,7 @@
         <v>44530</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22196,7 +22197,7 @@
         <v>44536</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22253,7 +22254,7 @@
         <v>44537</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22310,7 +22311,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22367,7 +22368,7 @@
         <v>44543</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22424,7 +22425,7 @@
         <v>44546</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22481,7 +22482,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22538,7 +22539,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22595,7 +22596,7 @@
         <v>44564</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22652,7 +22653,7 @@
         <v>44572</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22709,7 +22710,7 @@
         <v>44573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22766,7 +22767,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22823,7 +22824,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22880,7 +22881,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22937,7 +22938,7 @@
         <v>44575</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22994,7 +22995,7 @@
         <v>44585</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23051,7 +23052,7 @@
         <v>44586</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23108,7 +23109,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23165,7 +23166,7 @@
         <v>44587</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23222,7 +23223,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23279,7 +23280,7 @@
         <v>44602</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23341,7 +23342,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23398,7 +23399,7 @@
         <v>44606</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23455,7 +23456,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23512,7 +23513,7 @@
         <v>44613</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23569,7 +23570,7 @@
         <v>44615</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23626,7 +23627,7 @@
         <v>44638</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23683,7 +23684,7 @@
         <v>44648</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23740,7 +23741,7 @@
         <v>44655</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23797,7 +23798,7 @@
         <v>44680</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23859,7 +23860,7 @@
         <v>44687</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23916,7 +23917,7 @@
         <v>44690</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23978,7 +23979,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24035,7 +24036,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24092,7 +24093,7 @@
         <v>44694</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24154,7 +24155,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24211,7 +24212,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24273,7 +24274,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24330,7 +24331,7 @@
         <v>44712</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24387,7 +24388,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24444,7 +24445,7 @@
         <v>44714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24506,7 +24507,7 @@
         <v>44725</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24563,7 +24564,7 @@
         <v>44727</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24620,7 +24621,7 @@
         <v>44729</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24682,7 +24683,7 @@
         <v>44732</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24744,7 +24745,7 @@
         <v>44733</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24801,7 +24802,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24858,7 +24859,7 @@
         <v>44735</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24920,7 +24921,7 @@
         <v>44739</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24982,7 +24983,7 @@
         <v>44740</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25039,7 +25040,7 @@
         <v>44742</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25101,7 +25102,7 @@
         <v>44747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25163,7 +25164,7 @@
         <v>44753</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25225,7 +25226,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25282,7 +25283,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25344,7 +25345,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25406,7 +25407,7 @@
         <v>44774</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25468,7 +25469,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25530,7 +25531,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25587,7 +25588,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25644,7 +25645,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25701,7 +25702,7 @@
         <v>44781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25758,7 +25759,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25815,7 +25816,7 @@
         <v>44785</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25872,7 +25873,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25934,7 +25935,7 @@
         <v>44791</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25996,7 +25997,7 @@
         <v>44797</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26053,7 +26054,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26110,7 +26111,7 @@
         <v>44802</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26167,7 +26168,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26229,7 +26230,7 @@
         <v>44806</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26286,7 +26287,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26343,7 +26344,7 @@
         <v>44823</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26400,7 +26401,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26457,7 +26458,7 @@
         <v>44824</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26519,7 +26520,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26576,7 +26577,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26633,7 +26634,7 @@
         <v>44837</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26690,7 +26691,7 @@
         <v>44839</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26752,7 +26753,7 @@
         <v>44841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26814,7 +26815,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26871,7 +26872,7 @@
         <v>44845</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26928,7 +26929,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26985,7 +26986,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27042,7 +27043,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27099,7 +27100,7 @@
         <v>44853</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27156,7 +27157,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27213,7 +27214,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27270,7 +27271,7 @@
         <v>44855</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27327,7 +27328,7 @@
         <v>44859</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27384,7 +27385,7 @@
         <v>44860</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27441,7 +27442,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27503,7 +27504,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27560,7 +27561,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27622,7 +27623,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27684,7 +27685,7 @@
         <v>44872</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27746,7 +27747,7 @@
         <v>44874</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27803,7 +27804,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27860,7 +27861,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27922,7 +27923,7 @@
         <v>44879</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27979,7 +27980,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28036,7 +28037,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28098,7 +28099,7 @@
         <v>44901</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28160,7 +28161,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28217,7 +28218,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28274,7 +28275,7 @@
         <v>44902</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28331,7 +28332,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28388,7 +28389,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28445,7 +28446,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28502,7 +28503,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28559,7 +28560,7 @@
         <v>44903</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28616,7 +28617,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28673,7 +28674,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28730,7 +28731,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28787,7 +28788,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28844,7 +28845,7 @@
         <v>44908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28901,7 +28902,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28958,7 +28959,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29015,7 +29016,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29072,7 +29073,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29129,7 +29130,7 @@
         <v>44911</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29191,7 +29192,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29248,7 +29249,7 @@
         <v>44914</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29305,7 +29306,7 @@
         <v>44915</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29362,7 +29363,7 @@
         <v>44916</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29419,7 +29420,7 @@
         <v>44917</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29476,7 +29477,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29533,7 +29534,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29590,7 +29591,7 @@
         <v>44923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29647,7 +29648,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29704,7 +29705,7 @@
         <v>44924</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29761,7 +29762,7 @@
         <v>44928</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29823,7 +29824,7 @@
         <v>44929</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29880,7 +29881,7 @@
         <v>44936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29942,7 +29943,7 @@
         <v>44939</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29999,7 +30000,7 @@
         <v>44942</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30056,7 +30057,7 @@
         <v>44945</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30113,7 +30114,7 @@
         <v>44951</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30170,7 +30171,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30227,7 +30228,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30284,7 +30285,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30341,7 +30342,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30398,7 +30399,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30455,7 +30456,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30517,7 +30518,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30574,7 +30575,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30636,7 +30637,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30693,7 +30694,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30750,7 +30751,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30807,7 +30808,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30864,7 +30865,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30921,7 +30922,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30983,7 +30984,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31045,7 +31046,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31102,7 +31103,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31164,7 +31165,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31221,7 +31222,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31278,7 +31279,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31335,7 +31336,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31392,7 +31393,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31449,7 +31450,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31506,7 +31507,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31563,7 +31564,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31620,7 +31621,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31677,7 +31678,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31734,7 +31735,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31791,7 +31792,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31848,7 +31849,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31905,7 +31906,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31962,7 +31963,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32019,7 +32020,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32081,7 +32082,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32138,7 +32139,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32195,7 +32196,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32252,7 +32253,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32309,7 +32310,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32371,7 +32372,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32428,7 +32429,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32490,7 +32491,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32547,7 +32548,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32604,7 +32605,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32661,7 +32662,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32718,7 +32719,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32775,7 +32776,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32832,7 +32833,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32894,7 +32895,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32951,7 +32952,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33008,7 +33009,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33065,7 +33066,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33127,7 +33128,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33204,7 +33205,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33261,7 +33262,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33318,7 +33319,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33380,7 +33381,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33442,7 +33443,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33499,7 +33500,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33556,7 +33557,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33613,7 +33614,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33675,7 +33676,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33737,7 +33738,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33794,7 +33795,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33856,7 +33857,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33913,7 +33914,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33960,7 +33961,7 @@
       </c>
       <c r="R525" s="2" t="inlineStr"/>
     </row>
-    <row r="526">
+    <row r="526" ht="15" customHeight="1">
       <c r="A526" t="inlineStr">
         <is>
           <t>A 46275-2023</t>
@@ -33970,7 +33971,7 @@
         <v>45196</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34021,6 +34022,63 @@
         <v>0</v>
       </c>
       <c r="R526" s="2" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>A 47626-2023</t>
+        </is>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C527" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>BERG</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N527" t="n">
+        <v>0</v>
+      </c>
+      <c r="O527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R527" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>43672</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43395</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44853</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>45062</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44354</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44578</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44253</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44123</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44791</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>43879</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44293</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44573</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44806</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45091</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>44293</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>44776</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44806</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44062</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44050</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>44074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44799</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44967</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>44529</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43609</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43976</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44019</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44033</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44279</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44602</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44806</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44908</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44966</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44986</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43535</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43784</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44033</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44053</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>44735</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44791</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44826</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44833</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44900</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44945</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44977</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45079</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45126</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45145</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43363</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43389</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43404</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43409</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43419</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43423</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43430</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>43431</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43433</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43437</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43448</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43448</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43448</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43448</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43448</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43451</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43453</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43453</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43453</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43454</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>43454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43472</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43476</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43496</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43501</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43521</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43523</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43601</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43607</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43608</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43619</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43626</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>43643</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43656</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>43657</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>43661</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>43671</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>43678</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>43682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43684</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43689</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>43689</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43696</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43696</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43696</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43696</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43707</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43712</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43712</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43738</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43740</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43745</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43747</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>43760</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43760</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43770</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43783</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>43783</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>43791</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>43805</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>43812</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>43812</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>43833</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>43844</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>43844</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>43860</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>43866</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>43878</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>43881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>43881</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43888</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43894</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43894</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>43927</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>43929</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>43940</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43949</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43966</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43976</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43985</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43985</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43985</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44000</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44005</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44007</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44033</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44033</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44036</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44057</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44062</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44063</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44063</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44063</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44063</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44068</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44083</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44084</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44095</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44123</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44123</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44123</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44123</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44123</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44126</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44158</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44160</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44160</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44165</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44168</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44168</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44172</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44187</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44201</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44203</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44203</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44207</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>44209</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44209</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44209</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44209</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44218</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44224</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44245</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44253</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44267</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44277</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44277</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44277</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44277</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44278</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44293</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44293</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44293</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44293</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44321</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44349</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44350</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44350</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44354</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44357</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44358</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44361</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44384</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44389</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44392</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44399</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44399</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>44399</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44399</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44417</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44434</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44435</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44438</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44441</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44446</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44446</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44455</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44459</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44462</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44473</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44473</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44473</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44477</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44477</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44477</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44487</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44503</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44512</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>44529</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44529</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44529</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44529</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44530</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>44536</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>44537</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>44543</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44543</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>44546</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>44564</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22596,7 +22596,7 @@
         <v>44564</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>44572</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>44573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44575</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44575</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44585</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44586</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44587</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44587</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44602</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44606</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44606</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44613</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44615</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44638</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44648</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44655</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44680</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44687</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>44690</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44693</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>44694</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44712</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44712</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44725</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44727</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44729</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>44732</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44733</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>44735</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44735</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44739</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44740</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44742</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>44753</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44774</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44774</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44775</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44781</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44785</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44785</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44791</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44791</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44797</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44802</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44802</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>44803</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44806</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44823</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44824</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44824</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>44834</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>44837</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>44839</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>44841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>44845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>44845</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>44853</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>44853</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>44853</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44855</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44855</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44855</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44859</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44860</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44862</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44866</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44866</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44872</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44874</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44879</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44901</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>44901</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44902</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44902</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>44902</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>44903</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>44903</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>44903</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>44903</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44903</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44907</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44907</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44907</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44908</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44909</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>44909</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44911</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44914</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>44914</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44915</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>44916</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44917</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>44923</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>44923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>44923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29648,7 +29648,7 @@
         <v>44924</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>44924</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44928</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44929</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44936</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44939</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>44942</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44945</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>44951</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30171,7 +30171,7 @@
         <v>44965</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>44966</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>44966</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44973</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>44974</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44977</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>44978</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>44979</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44980</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44980</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44980</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44984</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         <v>44987</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44998</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44999</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45001</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45008</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>45008</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>45008</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>45016</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>45027</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>45028</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>45040</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45042</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45048</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45058</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45060</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>45063</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>45072</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45078</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45079</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45082</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45082</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45082</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45082</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45085</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45086</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45089</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45092</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45096</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>45097</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>45097</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>45097</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>45098</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45098</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45119</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45119</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45119</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45120</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45131</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45131</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>45140</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>45148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45149</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45154</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>45196</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45203</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
